--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time (s)</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Ball Valve Pressure Drop (psi)</t>
+  </si>
+  <si>
+    <t>Bottle Valve Pressure Drop (psi)</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -420,672 +426,6524 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.7054792389916082</v>
+        <v>0.707683861613457</v>
       </c>
       <c r="E2">
         <v>649.9999999999973</v>
       </c>
       <c r="F2">
-        <v>4.807970232799708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>4.898449479264497</v>
+      </c>
+      <c r="G2">
+        <v>171.1320422059235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1517181191661912</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>9.906954643831179</v>
+        <v>9.936391436230513</v>
       </c>
       <c r="D3">
-        <v>0.5511556554621939</v>
+        <v>0.5886342400336232</v>
       </c>
       <c r="E3">
-        <v>506.4102457869087</v>
+        <v>550.4312715951089</v>
       </c>
       <c r="F3">
-        <v>4.39081959612679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>4.457917681215194</v>
+      </c>
+      <c r="G3">
+        <v>119.1557759349596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.582796676199242</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>9.686638132766719</v>
+        <v>9.881471568391351</v>
       </c>
       <c r="D4">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E4">
         <v>477.8065747990704</v>
       </c>
       <c r="F4">
-        <v>3.469793717790685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>4.028181414474769</v>
+      </c>
+      <c r="G4">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.582796676199242</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>9.179574929741499</v>
+        <v>9.829442474515719</v>
       </c>
       <c r="D5">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E5">
         <v>477.8065747990703</v>
       </c>
       <c r="F5">
-        <v>3.469793717790687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G5">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582796676199242</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>8.67251172671628</v>
+        <v>9.777413380640089</v>
       </c>
       <c r="D6">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E6">
-        <v>477.8065747990701</v>
+        <v>477.8065747990704</v>
       </c>
       <c r="F6">
-        <v>3.469793717790691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.028181414474769</v>
+      </c>
+      <c r="G6">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.582796676199242</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>8.165448523691062</v>
+        <v>9.725384286764458</v>
       </c>
       <c r="D7">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E7">
-        <v>477.8065747990699</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F7">
-        <v>3.469793717790696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G7">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.582796676199242</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>7.658385320665844</v>
+        <v>9.673355192888826</v>
       </c>
       <c r="D8">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E8">
-        <v>477.8065747990697</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F8">
-        <v>3.469793717790704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G8">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.582796676199242</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>7.151322117640626</v>
+        <v>9.621326099013196</v>
       </c>
       <c r="D9">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E9">
-        <v>477.8065747990696</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F9">
-        <v>3.469793717790707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G9">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.582796676199242</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="C10">
-        <v>6.644258914615407</v>
+        <v>9.569297005137564</v>
       </c>
       <c r="D10">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E10">
-        <v>477.8065747990693</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F10">
-        <v>3.469793717790716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G10">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.582796676199242</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>6.137195711590189</v>
+        <v>9.517267911261932</v>
       </c>
       <c r="D11">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E11">
-        <v>477.806574799069</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F11">
-        <v>3.469793717790722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G11">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.582796676199242</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C12">
-        <v>5.63013250856497</v>
+        <v>9.465238817386302</v>
       </c>
       <c r="D12">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E12">
-        <v>477.8065747990689</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F12">
-        <v>3.469793717790731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G12">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.582796676199242</v>
+        <v>1.1</v>
       </c>
       <c r="C13">
-        <v>5.123069305539752</v>
+        <v>9.41320972351067</v>
       </c>
       <c r="D13">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E13">
-        <v>477.8065747990684</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F13">
-        <v>3.469793717790745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G13">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.58279667619924</v>
+        <v>1.2</v>
       </c>
       <c r="C14">
-        <v>4.616006102514533</v>
+        <v>9.361180629635038</v>
       </c>
       <c r="D14">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E14">
-        <v>477.806574799068</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F14">
-        <v>3.469793717790756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G14">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.58279667619924</v>
+        <v>1.3</v>
       </c>
       <c r="C15">
-        <v>4.108942899489315</v>
+        <v>9.309151535759408</v>
       </c>
       <c r="D15">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E15">
-        <v>477.8065747990674</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F15">
-        <v>3.469793717790773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G15">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.58279667619924</v>
+        <v>1.4</v>
       </c>
       <c r="C16">
-        <v>3.601879696464097</v>
+        <v>9.257122441883777</v>
       </c>
       <c r="D16">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E16">
-        <v>477.8065747990667</v>
+        <v>477.8065747990703</v>
       </c>
       <c r="F16">
-        <v>3.469793717790795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.028181414474775</v>
+      </c>
+      <c r="G16">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.58279667619924</v>
+        <v>1.5</v>
       </c>
       <c r="C17">
-        <v>3.094816493438878</v>
+        <v>9.205093348008145</v>
       </c>
       <c r="D17">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E17">
-        <v>477.8065747990657</v>
+        <v>477.8065747990702</v>
       </c>
       <c r="F17">
-        <v>3.469793717790822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>4.028181414474778</v>
+      </c>
+      <c r="G17">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58279667619924</v>
+        <v>1.6</v>
       </c>
       <c r="C18">
-        <v>2.58775329041366</v>
+        <v>9.153064254132513</v>
       </c>
       <c r="D18">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E18">
-        <v>477.8065747990643</v>
+        <v>477.8065747990702</v>
       </c>
       <c r="F18">
-        <v>3.469793717790863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>4.028181414474778</v>
+      </c>
+      <c r="G18">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.58279667619924</v>
+        <v>1.7</v>
       </c>
       <c r="C19">
-        <v>2.080690087388442</v>
+        <v>9.101035160256883</v>
       </c>
       <c r="D19">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E19">
-        <v>477.8065747990624</v>
+        <v>477.8065747990702</v>
       </c>
       <c r="F19">
-        <v>3.46979371779092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.028181414474778</v>
+      </c>
+      <c r="G19">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.58279667619924</v>
+        <v>1.8</v>
       </c>
       <c r="C20">
-        <v>1.573626884363222</v>
+        <v>9.049006066381251</v>
       </c>
       <c r="D20">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E20">
-        <v>477.806574799059</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F20">
-        <v>3.469793717791021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G20">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.58279667619924</v>
+        <v>1.900000000000001</v>
       </c>
       <c r="C21">
-        <v>1.066563681338004</v>
+        <v>8.996976972505619</v>
       </c>
       <c r="D21">
-        <v>0.5070632030252185</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E21">
-        <v>477.8065747990527</v>
+        <v>477.8065747990702</v>
       </c>
       <c r="F21">
-        <v>3.469793717791213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.028181414474778</v>
+      </c>
+      <c r="G21">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58279667619924</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>0.7908954799257553</v>
+        <v>8.944947878629989</v>
       </c>
       <c r="D22">
-        <v>0.2204622621848776</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E22">
-        <v>395.83434728603</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F22">
-        <v>1.27660677933568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G22">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.58279667619924</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="C23">
-        <v>0.5946901946595937</v>
+        <v>8.892918784754357</v>
       </c>
       <c r="D23">
-        <v>0.1763698097479021</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E23">
-        <v>316.7518187704945</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F23">
-        <v>1.194413803460179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G23">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.58279667619924</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="C24">
-        <v>0.4442698566090998</v>
+        <v>8.840889690878726</v>
       </c>
       <c r="D24">
-        <v>0.1322773573109265</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E24">
-        <v>246.2956989067709</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F24">
-        <v>0.720159585065516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G24">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.34897058487273</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="C25">
-        <v>0.3506859139750375</v>
+        <v>8.788860597003096</v>
       </c>
       <c r="D25">
-        <v>0.1102311310924388</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E25">
-        <v>197.9957174997586</v>
+        <v>477.8065747990702</v>
       </c>
       <c r="F25">
-        <v>0.8027281150772178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>4.028181414474778</v>
+      </c>
+      <c r="G25">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22.11514449354623</v>
+        <v>2.400000000000001</v>
       </c>
       <c r="C26">
-        <v>0.2783479883210089</v>
+        <v>8.736831503127464</v>
       </c>
       <c r="D26">
-        <v>0.08818490487395103</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E26">
-        <v>158.2531865526299</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F26">
-        <v>0.6028874936918075</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G26">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22.91115067572352</v>
+        <v>2.500000000000001</v>
       </c>
       <c r="C27">
-        <v>0.2207423958768079</v>
+        <v>8.684802409251832</v>
       </c>
       <c r="D27">
-        <v>0.06613867865546327</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E27">
-        <v>125.0761463362452</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F27">
-        <v>0.2879724048978305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G27">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.69505410993736</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="C28">
-        <v>0.1768392262269905</v>
+        <v>8.632773315376202</v>
       </c>
       <c r="D28">
-        <v>0.04409245243697552</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E28">
-        <v>98.86838125582196</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F28">
-        <v>0.0998267830216242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>4.028181414474782</v>
+      </c>
+      <c r="G28">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>24.6382912160562</v>
+        <v>2.700000000000001</v>
       </c>
       <c r="C29">
-        <v>0.1352495889886551</v>
+        <v>8.58074422150057</v>
       </c>
       <c r="D29">
-        <v>0.04409245243697552</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E29">
-        <v>73.29751548095898</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F29">
-        <v>0.303743226847259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>4.028181414474783</v>
+      </c>
+      <c r="G29">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>25.4540432433916</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="C30">
-        <v>0.1156261454624722</v>
+        <v>8.528715127624938</v>
       </c>
       <c r="D30">
-        <v>0.02204622621848776</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E30">
-        <v>60.97883919403427</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F30">
-        <v>0.02917050946328153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>4.028181414474783</v>
+      </c>
+      <c r="G30">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>26.26979527072701</v>
+        <v>2.900000000000001</v>
       </c>
       <c r="C31">
-        <v>0.09764189172964578</v>
+        <v>8.476686033749308</v>
       </c>
       <c r="D31">
-        <v>0.02204622621848776</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E31">
-        <v>49.54559093097566</v>
+        <v>477.80657479907</v>
       </c>
       <c r="F31">
-        <v>0.03912727376500167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>4.028181414474785</v>
+      </c>
+      <c r="G31">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>27.26979527072701</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="C32">
-        <v>0.07559566551115801</v>
+        <v>8.424656939873676</v>
       </c>
       <c r="D32">
-        <v>0.02204622621848776</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E32">
-        <v>35.34178971044324</v>
+        <v>477.8065747990701</v>
       </c>
       <c r="F32">
-        <v>0.07593078900695427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>4.028181414474783</v>
+      </c>
+      <c r="G32">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27.63182273235972</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="C33">
-        <v>0.0676143261946984</v>
+        <v>8.372627845998045</v>
       </c>
       <c r="D33">
-        <v>0.02204622621848776</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E33">
-        <v>30.14832405189871</v>
+        <v>477.80657479907</v>
       </c>
       <c r="F33">
-        <v>0.1362445204696747</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>4.028181414474785</v>
+      </c>
+      <c r="G33">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>27.99385019399243</v>
+        <v>3.200000000000002</v>
       </c>
       <c r="C34">
-        <v>0.06330135304163766</v>
+        <v>8.320598752122415</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E34">
-        <v>27.33048792659903</v>
+        <v>477.80657479907</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>4.028181414474785</v>
+      </c>
+      <c r="G34">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>28.349523125</v>
+        <v>3.300000000000002</v>
       </c>
       <c r="C35">
-        <v>0.06330135304163766</v>
+        <v>8.268569658246783</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.520290938756311</v>
       </c>
       <c r="E35">
-        <v>27.33048792659903</v>
+        <v>477.80657479907</v>
       </c>
       <c r="F35">
+        <v>4.028181414474785</v>
+      </c>
+      <c r="G35">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3.400000000000002</v>
+      </c>
+      <c r="C36">
+        <v>8.216540564371151</v>
+      </c>
+      <c r="D36">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E36">
+        <v>477.80657479907</v>
+      </c>
+      <c r="F36">
+        <v>4.028181414474785</v>
+      </c>
+      <c r="G36">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3.500000000000002</v>
+      </c>
+      <c r="C37">
+        <v>8.164511470495521</v>
+      </c>
+      <c r="D37">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E37">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F37">
+        <v>4.028181414474788</v>
+      </c>
+      <c r="G37">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3.600000000000002</v>
+      </c>
+      <c r="C38">
+        <v>8.112482376619889</v>
+      </c>
+      <c r="D38">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E38">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F38">
+        <v>4.028181414474788</v>
+      </c>
+      <c r="G38">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3.700000000000002</v>
+      </c>
+      <c r="C39">
+        <v>8.060453282744257</v>
+      </c>
+      <c r="D39">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E39">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F39">
+        <v>4.028181414474788</v>
+      </c>
+      <c r="G39">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3.800000000000002</v>
+      </c>
+      <c r="C40">
+        <v>8.008424188868625</v>
+      </c>
+      <c r="D40">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E40">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F40">
+        <v>4.028181414474788</v>
+      </c>
+      <c r="G40">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3.900000000000002</v>
+      </c>
+      <c r="C41">
+        <v>7.956395094992995</v>
+      </c>
+      <c r="D41">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E41">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F41">
+        <v>4.028181414474791</v>
+      </c>
+      <c r="G41">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4.000000000000002</v>
+      </c>
+      <c r="C42">
+        <v>7.904366001117364</v>
+      </c>
+      <c r="D42">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E42">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F42">
+        <v>4.028181414474791</v>
+      </c>
+      <c r="G42">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="C43">
+        <v>7.852336907241733</v>
+      </c>
+      <c r="D43">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E43">
+        <v>477.8065747990699</v>
+      </c>
+      <c r="F43">
+        <v>4.028181414474791</v>
+      </c>
+      <c r="G43">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>4.200000000000001</v>
+      </c>
+      <c r="C44">
+        <v>7.800307813366102</v>
+      </c>
+      <c r="D44">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E44">
+        <v>477.8065747990698</v>
+      </c>
+      <c r="F44">
+        <v>4.028181414474794</v>
+      </c>
+      <c r="G44">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>4.300000000000001</v>
+      </c>
+      <c r="C45">
+        <v>7.74827871949047</v>
+      </c>
+      <c r="D45">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E45">
+        <v>477.8065747990698</v>
+      </c>
+      <c r="F45">
+        <v>4.028181414474794</v>
+      </c>
+      <c r="G45">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>4.4</v>
+      </c>
+      <c r="C46">
+        <v>7.696249625614839</v>
+      </c>
+      <c r="D46">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E46">
+        <v>477.8065747990698</v>
+      </c>
+      <c r="F46">
+        <v>4.028181414474794</v>
+      </c>
+      <c r="G46">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>4.5</v>
+      </c>
+      <c r="C47">
+        <v>7.644220531739207</v>
+      </c>
+      <c r="D47">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E47">
+        <v>477.8065747990698</v>
+      </c>
+      <c r="F47">
+        <v>4.028181414474794</v>
+      </c>
+      <c r="G47">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.6</v>
+      </c>
+      <c r="C48">
+        <v>7.592191437863576</v>
+      </c>
+      <c r="D48">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E48">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F48">
+        <v>4.028181414474799</v>
+      </c>
+      <c r="G48">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>4.699999999999999</v>
+      </c>
+      <c r="C49">
+        <v>7.540162343987945</v>
+      </c>
+      <c r="D49">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E49">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F49">
+        <v>4.0281814144748</v>
+      </c>
+      <c r="G49">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>4.799999999999999</v>
+      </c>
+      <c r="C50">
+        <v>7.488133250112313</v>
+      </c>
+      <c r="D50">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E50">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F50">
+        <v>4.028181414474799</v>
+      </c>
+      <c r="G50">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.899999999999999</v>
+      </c>
+      <c r="C51">
+        <v>7.436104156236683</v>
+      </c>
+      <c r="D51">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E51">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F51">
+        <v>4.0281814144748</v>
+      </c>
+      <c r="G51">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>4.999999999999998</v>
+      </c>
+      <c r="C52">
+        <v>7.384075062361052</v>
+      </c>
+      <c r="D52">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E52">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F52">
+        <v>4.028181414474799</v>
+      </c>
+      <c r="G52">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>5.099999999999998</v>
+      </c>
+      <c r="C53">
+        <v>7.33204596848542</v>
+      </c>
+      <c r="D53">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E53">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F53">
+        <v>4.0281814144748</v>
+      </c>
+      <c r="G53">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>5.199999999999998</v>
+      </c>
+      <c r="C54">
+        <v>7.280016874609789</v>
+      </c>
+      <c r="D54">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E54">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F54">
+        <v>4.0281814144748</v>
+      </c>
+      <c r="G54">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>5.299999999999997</v>
+      </c>
+      <c r="C55">
+        <v>7.227987780734158</v>
+      </c>
+      <c r="D55">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E55">
+        <v>477.8065747990696</v>
+      </c>
+      <c r="F55">
+        <v>4.028181414474804</v>
+      </c>
+      <c r="G55">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.399999999999997</v>
+      </c>
+      <c r="C56">
+        <v>7.175958686858526</v>
+      </c>
+      <c r="D56">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E56">
+        <v>477.8065747990697</v>
+      </c>
+      <c r="F56">
+        <v>4.0281814144748</v>
+      </c>
+      <c r="G56">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>5.499999999999996</v>
+      </c>
+      <c r="C57">
+        <v>7.123929592982895</v>
+      </c>
+      <c r="D57">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E57">
+        <v>477.8065747990696</v>
+      </c>
+      <c r="F57">
+        <v>4.028181414474804</v>
+      </c>
+      <c r="G57">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>5.599999999999996</v>
+      </c>
+      <c r="C58">
+        <v>7.071900499107263</v>
+      </c>
+      <c r="D58">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E58">
+        <v>477.8065747990696</v>
+      </c>
+      <c r="F58">
+        <v>4.028181414474804</v>
+      </c>
+      <c r="G58">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>5.699999999999996</v>
+      </c>
+      <c r="C59">
+        <v>7.019871405231632</v>
+      </c>
+      <c r="D59">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E59">
+        <v>477.8065747990696</v>
+      </c>
+      <c r="F59">
+        <v>4.028181414474804</v>
+      </c>
+      <c r="G59">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>5.799999999999995</v>
+      </c>
+      <c r="C60">
+        <v>6.967842311356002</v>
+      </c>
+      <c r="D60">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E60">
+        <v>477.8065747990696</v>
+      </c>
+      <c r="F60">
+        <v>4.028181414474804</v>
+      </c>
+      <c r="G60">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>5.899999999999995</v>
+      </c>
+      <c r="C61">
+        <v>6.91581321748037</v>
+      </c>
+      <c r="D61">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E61">
+        <v>477.8065747990694</v>
+      </c>
+      <c r="F61">
+        <v>4.028181414474805</v>
+      </c>
+      <c r="G61">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>5.999999999999995</v>
+      </c>
+      <c r="C62">
+        <v>6.863784123604739</v>
+      </c>
+      <c r="D62">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E62">
+        <v>477.8065747990694</v>
+      </c>
+      <c r="F62">
+        <v>4.028181414474805</v>
+      </c>
+      <c r="G62">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="C63">
+        <v>6.811755029729108</v>
+      </c>
+      <c r="D63">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E63">
+        <v>477.8065747990694</v>
+      </c>
+      <c r="F63">
+        <v>4.028181414474808</v>
+      </c>
+      <c r="G63">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>6.199999999999994</v>
+      </c>
+      <c r="C64">
+        <v>6.759725935853476</v>
+      </c>
+      <c r="D64">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E64">
+        <v>477.8065747990694</v>
+      </c>
+      <c r="F64">
+        <v>4.028181414474805</v>
+      </c>
+      <c r="G64">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>6.299999999999994</v>
+      </c>
+      <c r="C65">
+        <v>6.707696841977845</v>
+      </c>
+      <c r="D65">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E65">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F65">
+        <v>4.028181414474813</v>
+      </c>
+      <c r="G65">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>6.399999999999993</v>
+      </c>
+      <c r="C66">
+        <v>6.655667748102214</v>
+      </c>
+      <c r="D66">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E66">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F66">
+        <v>4.028181414474813</v>
+      </c>
+      <c r="G66">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>6.499999999999993</v>
+      </c>
+      <c r="C67">
+        <v>6.603638654226582</v>
+      </c>
+      <c r="D67">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E67">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F67">
+        <v>4.028181414474813</v>
+      </c>
+      <c r="G67">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>6.599999999999993</v>
+      </c>
+      <c r="C68">
+        <v>6.551609560350951</v>
+      </c>
+      <c r="D68">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E68">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F68">
+        <v>4.028181414474813</v>
+      </c>
+      <c r="G68">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>6.699999999999992</v>
+      </c>
+      <c r="C69">
+        <v>6.49958046647532</v>
+      </c>
+      <c r="D69">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E69">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F69">
+        <v>4.028181414474818</v>
+      </c>
+      <c r="G69">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>6.799999999999992</v>
+      </c>
+      <c r="C70">
+        <v>6.447551372599689</v>
+      </c>
+      <c r="D70">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E70">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F70">
+        <v>4.028181414474818</v>
+      </c>
+      <c r="G70">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>6.899999999999991</v>
+      </c>
+      <c r="C71">
+        <v>6.395522278724058</v>
+      </c>
+      <c r="D71">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E71">
+        <v>477.8065747990693</v>
+      </c>
+      <c r="F71">
+        <v>4.028181414474818</v>
+      </c>
+      <c r="G71">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>6.999999999999991</v>
+      </c>
+      <c r="C72">
+        <v>6.343493184848426</v>
+      </c>
+      <c r="D72">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E72">
+        <v>477.8065747990692</v>
+      </c>
+      <c r="F72">
+        <v>4.028181414474819</v>
+      </c>
+      <c r="G72">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>7.099999999999991</v>
+      </c>
+      <c r="C73">
+        <v>6.291464090972795</v>
+      </c>
+      <c r="D73">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E73">
+        <v>477.8065747990692</v>
+      </c>
+      <c r="F73">
+        <v>4.028181414474819</v>
+      </c>
+      <c r="G73">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>7.19999999999999</v>
+      </c>
+      <c r="C74">
+        <v>6.239434997097164</v>
+      </c>
+      <c r="D74">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E74">
+        <v>477.8065747990691</v>
+      </c>
+      <c r="F74">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G74">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>7.29999999999999</v>
+      </c>
+      <c r="C75">
+        <v>6.187405903221532</v>
+      </c>
+      <c r="D75">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E75">
+        <v>477.8065747990691</v>
+      </c>
+      <c r="F75">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G75">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>7.39999999999999</v>
+      </c>
+      <c r="C76">
+        <v>6.135376809345901</v>
+      </c>
+      <c r="D76">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E76">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F76">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G76">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>7.499999999999989</v>
+      </c>
+      <c r="C77">
+        <v>6.08334771547027</v>
+      </c>
+      <c r="D77">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E77">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F77">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G77">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>7.599999999999989</v>
+      </c>
+      <c r="C78">
+        <v>6.031318621594639</v>
+      </c>
+      <c r="D78">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E78">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F78">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G78">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>7.699999999999989</v>
+      </c>
+      <c r="C79">
+        <v>5.979289527719008</v>
+      </c>
+      <c r="D79">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E79">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F79">
+        <v>4.028181414474822</v>
+      </c>
+      <c r="G79">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>7.799999999999988</v>
+      </c>
+      <c r="C80">
+        <v>5.927260433843376</v>
+      </c>
+      <c r="D80">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E80">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F80">
+        <v>4.028181414474827</v>
+      </c>
+      <c r="G80">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>7.899999999999988</v>
+      </c>
+      <c r="C81">
+        <v>5.875231339967745</v>
+      </c>
+      <c r="D81">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E81">
+        <v>477.806574799069</v>
+      </c>
+      <c r="F81">
+        <v>4.028181414474827</v>
+      </c>
+      <c r="G81">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>7.999999999999988</v>
+      </c>
+      <c r="C82">
+        <v>5.823202246092114</v>
+      </c>
+      <c r="D82">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E82">
+        <v>477.8065747990689</v>
+      </c>
+      <c r="F82">
+        <v>4.02818141447483</v>
+      </c>
+      <c r="G82">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>8.099999999999987</v>
+      </c>
+      <c r="C83">
+        <v>5.771173152216482</v>
+      </c>
+      <c r="D83">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E83">
+        <v>477.8065747990689</v>
+      </c>
+      <c r="F83">
+        <v>4.02818141447483</v>
+      </c>
+      <c r="G83">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>8.199999999999987</v>
+      </c>
+      <c r="C84">
+        <v>5.719144058340851</v>
+      </c>
+      <c r="D84">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E84">
+        <v>477.8065747990688</v>
+      </c>
+      <c r="F84">
+        <v>4.028181414474833</v>
+      </c>
+      <c r="G84">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>8.299999999999986</v>
+      </c>
+      <c r="C85">
+        <v>5.66711496446522</v>
+      </c>
+      <c r="D85">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E85">
+        <v>477.8065747990688</v>
+      </c>
+      <c r="F85">
+        <v>4.028181414474833</v>
+      </c>
+      <c r="G85">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>8.399999999999986</v>
+      </c>
+      <c r="C86">
+        <v>5.615085870589589</v>
+      </c>
+      <c r="D86">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E86">
+        <v>477.8065747990687</v>
+      </c>
+      <c r="F86">
+        <v>4.028181414474834</v>
+      </c>
+      <c r="G86">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>8.499999999999986</v>
+      </c>
+      <c r="C87">
+        <v>5.563056776713958</v>
+      </c>
+      <c r="D87">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E87">
+        <v>477.8065747990687</v>
+      </c>
+      <c r="F87">
+        <v>4.028181414474834</v>
+      </c>
+      <c r="G87">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>8.599999999999985</v>
+      </c>
+      <c r="C88">
+        <v>5.511027682838327</v>
+      </c>
+      <c r="D88">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E88">
+        <v>477.8065747990686</v>
+      </c>
+      <c r="F88">
+        <v>4.028181414474841</v>
+      </c>
+      <c r="G88">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>8.699999999999985</v>
+      </c>
+      <c r="C89">
+        <v>5.458998588962695</v>
+      </c>
+      <c r="D89">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E89">
+        <v>477.8065747990687</v>
+      </c>
+      <c r="F89">
+        <v>4.028181414474834</v>
+      </c>
+      <c r="G89">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>8.799999999999985</v>
+      </c>
+      <c r="C90">
+        <v>5.406969495087064</v>
+      </c>
+      <c r="D90">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E90">
+        <v>477.8065747990686</v>
+      </c>
+      <c r="F90">
+        <v>4.028181414474841</v>
+      </c>
+      <c r="G90">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>8.899999999999984</v>
+      </c>
+      <c r="C91">
+        <v>5.354940401211432</v>
+      </c>
+      <c r="D91">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E91">
+        <v>477.8065747990686</v>
+      </c>
+      <c r="F91">
+        <v>4.028181414474841</v>
+      </c>
+      <c r="G91">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>8.999999999999984</v>
+      </c>
+      <c r="C92">
+        <v>5.302911307335801</v>
+      </c>
+      <c r="D92">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E92">
+        <v>477.8065747990686</v>
+      </c>
+      <c r="F92">
+        <v>4.028181414474841</v>
+      </c>
+      <c r="G92">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>9.099999999999984</v>
+      </c>
+      <c r="C93">
+        <v>5.25088221346017</v>
+      </c>
+      <c r="D93">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E93">
+        <v>477.8065747990685</v>
+      </c>
+      <c r="F93">
+        <v>4.028181414474846</v>
+      </c>
+      <c r="G93">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>9.199999999999983</v>
+      </c>
+      <c r="C94">
+        <v>5.198853119584538</v>
+      </c>
+      <c r="D94">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E94">
+        <v>477.8065747990685</v>
+      </c>
+      <c r="F94">
+        <v>4.028181414474846</v>
+      </c>
+      <c r="G94">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>9.299999999999983</v>
+      </c>
+      <c r="C95">
+        <v>5.146824025708908</v>
+      </c>
+      <c r="D95">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E95">
+        <v>477.8065747990685</v>
+      </c>
+      <c r="F95">
+        <v>4.028181414474846</v>
+      </c>
+      <c r="G95">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>9.399999999999983</v>
+      </c>
+      <c r="C96">
+        <v>5.094794931833277</v>
+      </c>
+      <c r="D96">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E96">
+        <v>477.8065747990684</v>
+      </c>
+      <c r="F96">
+        <v>4.028181414474853</v>
+      </c>
+      <c r="G96">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>9.499999999999982</v>
+      </c>
+      <c r="C97">
+        <v>5.042765837957645</v>
+      </c>
+      <c r="D97">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E97">
+        <v>477.8065747990683</v>
+      </c>
+      <c r="F97">
+        <v>4.028181414474853</v>
+      </c>
+      <c r="G97">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>9.599999999999982</v>
+      </c>
+      <c r="C98">
+        <v>4.990736744082014</v>
+      </c>
+      <c r="D98">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E98">
+        <v>477.8065747990683</v>
+      </c>
+      <c r="F98">
+        <v>4.028181414474853</v>
+      </c>
+      <c r="G98">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>9.699999999999982</v>
+      </c>
+      <c r="C99">
+        <v>4.938707650206383</v>
+      </c>
+      <c r="D99">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E99">
+        <v>477.8065747990682</v>
+      </c>
+      <c r="F99">
+        <v>4.028181414474857</v>
+      </c>
+      <c r="G99">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>9.799999999999981</v>
+      </c>
+      <c r="C100">
+        <v>4.886678556330751</v>
+      </c>
+      <c r="D100">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E100">
+        <v>477.8065747990682</v>
+      </c>
+      <c r="F100">
+        <v>4.028181414474857</v>
+      </c>
+      <c r="G100">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>9.899999999999981</v>
+      </c>
+      <c r="C101">
+        <v>4.83464946245512</v>
+      </c>
+      <c r="D101">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E101">
+        <v>477.8065747990682</v>
+      </c>
+      <c r="F101">
+        <v>4.028181414474857</v>
+      </c>
+      <c r="G101">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>9.99999999999998</v>
+      </c>
+      <c r="C102">
+        <v>4.782620368579488</v>
+      </c>
+      <c r="D102">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E102">
+        <v>477.806574799068</v>
+      </c>
+      <c r="F102">
+        <v>4.028181414474863</v>
+      </c>
+      <c r="G102">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>10.09999999999998</v>
+      </c>
+      <c r="C103">
+        <v>4.730591274703857</v>
+      </c>
+      <c r="D103">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E103">
+        <v>477.8065747990681</v>
+      </c>
+      <c r="F103">
+        <v>4.028181414474863</v>
+      </c>
+      <c r="G103">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>10.19999999999998</v>
+      </c>
+      <c r="C104">
+        <v>4.678562180828227</v>
+      </c>
+      <c r="D104">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E104">
+        <v>477.806574799068</v>
+      </c>
+      <c r="F104">
+        <v>4.028181414474863</v>
+      </c>
+      <c r="G104">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>10.29999999999998</v>
+      </c>
+      <c r="C105">
+        <v>4.626533086952595</v>
+      </c>
+      <c r="D105">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E105">
+        <v>477.806574799068</v>
+      </c>
+      <c r="F105">
+        <v>4.028181414474869</v>
+      </c>
+      <c r="G105">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>10.39999999999998</v>
+      </c>
+      <c r="C106">
+        <v>4.574503993076964</v>
+      </c>
+      <c r="D106">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E106">
+        <v>477.8065747990679</v>
+      </c>
+      <c r="F106">
+        <v>4.028181414474869</v>
+      </c>
+      <c r="G106">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>10.49999999999998</v>
+      </c>
+      <c r="C107">
+        <v>4.522474899201333</v>
+      </c>
+      <c r="D107">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E107">
+        <v>477.8065747990678</v>
+      </c>
+      <c r="F107">
+        <v>4.028181414474871</v>
+      </c>
+      <c r="G107">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>10.59999999999998</v>
+      </c>
+      <c r="C108">
+        <v>4.470445805325701</v>
+      </c>
+      <c r="D108">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E108">
+        <v>477.8065747990678</v>
+      </c>
+      <c r="F108">
+        <v>4.028181414474873</v>
+      </c>
+      <c r="G108">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>10.69999999999998</v>
+      </c>
+      <c r="C109">
+        <v>4.41841671145007</v>
+      </c>
+      <c r="D109">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E109">
+        <v>477.8065747990678</v>
+      </c>
+      <c r="F109">
+        <v>4.028181414474873</v>
+      </c>
+      <c r="G109">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>10.79999999999998</v>
+      </c>
+      <c r="C110">
+        <v>4.366387617574439</v>
+      </c>
+      <c r="D110">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E110">
+        <v>477.8065747990676</v>
+      </c>
+      <c r="F110">
+        <v>4.028181414474879</v>
+      </c>
+      <c r="G110">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>10.89999999999998</v>
+      </c>
+      <c r="C111">
+        <v>4.314358523698808</v>
+      </c>
+      <c r="D111">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E111">
+        <v>477.8065747990676</v>
+      </c>
+      <c r="F111">
+        <v>4.028181414474879</v>
+      </c>
+      <c r="G111">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>10.99999999999998</v>
+      </c>
+      <c r="C112">
+        <v>4.262329429823177</v>
+      </c>
+      <c r="D112">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E112">
+        <v>477.8065747990676</v>
+      </c>
+      <c r="F112">
+        <v>4.028181414474881</v>
+      </c>
+      <c r="G112">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>11.09999999999998</v>
+      </c>
+      <c r="C113">
+        <v>4.210300335947547</v>
+      </c>
+      <c r="D113">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E113">
+        <v>477.8065747990675</v>
+      </c>
+      <c r="F113">
+        <v>4.028181414474883</v>
+      </c>
+      <c r="G113">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>11.19999999999998</v>
+      </c>
+      <c r="C114">
+        <v>4.158271242071916</v>
+      </c>
+      <c r="D114">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E114">
+        <v>477.8065747990674</v>
+      </c>
+      <c r="F114">
+        <v>4.028181414474884</v>
+      </c>
+      <c r="G114">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>11.29999999999998</v>
+      </c>
+      <c r="C115">
+        <v>4.106242148196285</v>
+      </c>
+      <c r="D115">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E115">
+        <v>477.8065747990674</v>
+      </c>
+      <c r="F115">
+        <v>4.028181414474889</v>
+      </c>
+      <c r="G115">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>11.39999999999998</v>
+      </c>
+      <c r="C116">
+        <v>4.054213054320654</v>
+      </c>
+      <c r="D116">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E116">
+        <v>477.8065747990673</v>
+      </c>
+      <c r="F116">
+        <v>4.028181414474892</v>
+      </c>
+      <c r="G116">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>11.49999999999998</v>
+      </c>
+      <c r="C117">
+        <v>4.002183960445024</v>
+      </c>
+      <c r="D117">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E117">
+        <v>477.8065747990672</v>
+      </c>
+      <c r="F117">
+        <v>4.028181414474897</v>
+      </c>
+      <c r="G117">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>11.59999999999997</v>
+      </c>
+      <c r="C118">
+        <v>3.950154866569393</v>
+      </c>
+      <c r="D118">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E118">
+        <v>477.8065747990672</v>
+      </c>
+      <c r="F118">
+        <v>4.028181414474897</v>
+      </c>
+      <c r="G118">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>11.69999999999997</v>
+      </c>
+      <c r="C119">
+        <v>3.898125772693762</v>
+      </c>
+      <c r="D119">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E119">
+        <v>477.8065747990671</v>
+      </c>
+      <c r="F119">
+        <v>4.028181414474898</v>
+      </c>
+      <c r="G119">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>11.79999999999997</v>
+      </c>
+      <c r="C120">
+        <v>3.846096678818132</v>
+      </c>
+      <c r="D120">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E120">
+        <v>477.8065747990671</v>
+      </c>
+      <c r="F120">
+        <v>4.028181414474902</v>
+      </c>
+      <c r="G120">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>11.89999999999997</v>
+      </c>
+      <c r="C121">
+        <v>3.794067584942501</v>
+      </c>
+      <c r="D121">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E121">
+        <v>477.8065747990669</v>
+      </c>
+      <c r="F121">
+        <v>4.028181414474905</v>
+      </c>
+      <c r="G121">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>11.99999999999997</v>
+      </c>
+      <c r="C122">
+        <v>3.74203849106687</v>
+      </c>
+      <c r="D122">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E122">
+        <v>477.8065747990668</v>
+      </c>
+      <c r="F122">
+        <v>4.02818141447491</v>
+      </c>
+      <c r="G122">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>12.09999999999997</v>
+      </c>
+      <c r="C123">
+        <v>3.690009397191239</v>
+      </c>
+      <c r="D123">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E123">
+        <v>477.8065747990668</v>
+      </c>
+      <c r="F123">
+        <v>4.02818141447491</v>
+      </c>
+      <c r="G123">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>12.19999999999997</v>
+      </c>
+      <c r="C124">
+        <v>3.637980303315608</v>
+      </c>
+      <c r="D124">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E124">
+        <v>477.8065747990667</v>
+      </c>
+      <c r="F124">
+        <v>4.028181414474915</v>
+      </c>
+      <c r="G124">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>12.29999999999997</v>
+      </c>
+      <c r="C125">
+        <v>3.585951209439978</v>
+      </c>
+      <c r="D125">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E125">
+        <v>477.8065747990667</v>
+      </c>
+      <c r="F125">
+        <v>4.028181414474917</v>
+      </c>
+      <c r="G125">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>12.39999999999997</v>
+      </c>
+      <c r="C126">
+        <v>3.533922115564347</v>
+      </c>
+      <c r="D126">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E126">
+        <v>477.8065747990665</v>
+      </c>
+      <c r="F126">
+        <v>4.028181414474919</v>
+      </c>
+      <c r="G126">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>12.49999999999997</v>
+      </c>
+      <c r="C127">
+        <v>3.481893021688716</v>
+      </c>
+      <c r="D127">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E127">
+        <v>477.8065747990665</v>
+      </c>
+      <c r="F127">
+        <v>4.028181414474923</v>
+      </c>
+      <c r="G127">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>12.59999999999997</v>
+      </c>
+      <c r="C128">
+        <v>3.429863927813086</v>
+      </c>
+      <c r="D128">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E128">
+        <v>477.8065747990664</v>
+      </c>
+      <c r="F128">
+        <v>4.02818141447493</v>
+      </c>
+      <c r="G128">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>12.69999999999997</v>
+      </c>
+      <c r="C129">
+        <v>3.377834833937455</v>
+      </c>
+      <c r="D129">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E129">
+        <v>477.8065747990662</v>
+      </c>
+      <c r="F129">
+        <v>4.028181414474934</v>
+      </c>
+      <c r="G129">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>12.79999999999997</v>
+      </c>
+      <c r="C130">
+        <v>3.325805740061824</v>
+      </c>
+      <c r="D130">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E130">
+        <v>477.8065747990662</v>
+      </c>
+      <c r="F130">
+        <v>4.028181414474934</v>
+      </c>
+      <c r="G130">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>12.89999999999997</v>
+      </c>
+      <c r="C131">
+        <v>3.273776646186193</v>
+      </c>
+      <c r="D131">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E131">
+        <v>477.806574799066</v>
+      </c>
+      <c r="F131">
+        <v>4.028181414474941</v>
+      </c>
+      <c r="G131">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>12.99999999999997</v>
+      </c>
+      <c r="C132">
+        <v>3.221747552310562</v>
+      </c>
+      <c r="D132">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E132">
+        <v>477.806574799066</v>
+      </c>
+      <c r="F132">
+        <v>4.028181414474941</v>
+      </c>
+      <c r="G132">
+        <v>93.55461219592134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>13.09999999999997</v>
+      </c>
+      <c r="C133">
+        <v>3.169718458434932</v>
+      </c>
+      <c r="D133">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E133">
+        <v>477.8065747990658</v>
+      </c>
+      <c r="F133">
+        <v>4.028181414474947</v>
+      </c>
+      <c r="G133">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>13.19999999999997</v>
+      </c>
+      <c r="C134">
+        <v>3.117689364559301</v>
+      </c>
+      <c r="D134">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E134">
+        <v>477.8065747990657</v>
+      </c>
+      <c r="F134">
+        <v>4.02818141447495</v>
+      </c>
+      <c r="G134">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>13.29999999999997</v>
+      </c>
+      <c r="C135">
+        <v>3.06566027068367</v>
+      </c>
+      <c r="D135">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E135">
+        <v>477.8065747990656</v>
+      </c>
+      <c r="F135">
+        <v>4.028181414474954</v>
+      </c>
+      <c r="G135">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>13.39999999999997</v>
+      </c>
+      <c r="C136">
+        <v>3.013631176808039</v>
+      </c>
+      <c r="D136">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E136">
+        <v>477.8065747990655</v>
+      </c>
+      <c r="F136">
+        <v>4.028181414474955</v>
+      </c>
+      <c r="G136">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>13.49999999999997</v>
+      </c>
+      <c r="C137">
+        <v>2.961602082932409</v>
+      </c>
+      <c r="D137">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E137">
+        <v>477.8065747990653</v>
+      </c>
+      <c r="F137">
+        <v>4.028181414474965</v>
+      </c>
+      <c r="G137">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>13.59999999999997</v>
+      </c>
+      <c r="C138">
+        <v>2.909572989056778</v>
+      </c>
+      <c r="D138">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E138">
+        <v>477.8065747990652</v>
+      </c>
+      <c r="F138">
+        <v>4.028181414474971</v>
+      </c>
+      <c r="G138">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>13.69999999999997</v>
+      </c>
+      <c r="C139">
+        <v>2.857543895181147</v>
+      </c>
+      <c r="D139">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E139">
+        <v>477.8065747990651</v>
+      </c>
+      <c r="F139">
+        <v>4.028181414474976</v>
+      </c>
+      <c r="G139">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>13.79999999999997</v>
+      </c>
+      <c r="C140">
+        <v>2.805514801305516</v>
+      </c>
+      <c r="D140">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E140">
+        <v>477.8065747990649</v>
+      </c>
+      <c r="F140">
+        <v>4.02818141447498</v>
+      </c>
+      <c r="G140">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>13.89999999999997</v>
+      </c>
+      <c r="C141">
+        <v>2.753485707429886</v>
+      </c>
+      <c r="D141">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E141">
+        <v>477.8065747990649</v>
+      </c>
+      <c r="F141">
+        <v>4.028181414474982</v>
+      </c>
+      <c r="G141">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>13.99999999999997</v>
+      </c>
+      <c r="C142">
+        <v>2.701456613554255</v>
+      </c>
+      <c r="D142">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E142">
+        <v>477.8065747990647</v>
+      </c>
+      <c r="F142">
+        <v>4.02818141447499</v>
+      </c>
+      <c r="G142">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>14.09999999999997</v>
+      </c>
+      <c r="C143">
+        <v>2.649427519678624</v>
+      </c>
+      <c r="D143">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E143">
+        <v>477.8065747990645</v>
+      </c>
+      <c r="F143">
+        <v>4.028181414474995</v>
+      </c>
+      <c r="G143">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>14.19999999999997</v>
+      </c>
+      <c r="C144">
+        <v>2.597398425802993</v>
+      </c>
+      <c r="D144">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E144">
+        <v>477.8065747990644</v>
+      </c>
+      <c r="F144">
+        <v>4.028181414475</v>
+      </c>
+      <c r="G144">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>14.29999999999997</v>
+      </c>
+      <c r="C145">
+        <v>2.545369331927362</v>
+      </c>
+      <c r="D145">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E145">
+        <v>477.8065747990642</v>
+      </c>
+      <c r="F145">
+        <v>4.028181414475009</v>
+      </c>
+      <c r="G145">
+        <v>93.55461219592128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>14.39999999999996</v>
+      </c>
+      <c r="C146">
+        <v>2.493340238051732</v>
+      </c>
+      <c r="D146">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E146">
+        <v>477.806574799064</v>
+      </c>
+      <c r="F146">
+        <v>4.02818141447502</v>
+      </c>
+      <c r="G146">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>14.49999999999996</v>
+      </c>
+      <c r="C147">
+        <v>2.441311144176101</v>
+      </c>
+      <c r="D147">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E147">
+        <v>477.8065747990638</v>
+      </c>
+      <c r="F147">
+        <v>4.028181414475026</v>
+      </c>
+      <c r="G147">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>14.59999999999996</v>
+      </c>
+      <c r="C148">
+        <v>2.38928205030047</v>
+      </c>
+      <c r="D148">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E148">
+        <v>477.8065747990636</v>
+      </c>
+      <c r="F148">
+        <v>4.028181414475031</v>
+      </c>
+      <c r="G148">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>14.69999999999996</v>
+      </c>
+      <c r="C149">
+        <v>2.33725295642484</v>
+      </c>
+      <c r="D149">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E149">
+        <v>477.8065747990635</v>
+      </c>
+      <c r="F149">
+        <v>4.028181414475045</v>
+      </c>
+      <c r="G149">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>14.79999999999996</v>
+      </c>
+      <c r="C150">
+        <v>2.285223862549209</v>
+      </c>
+      <c r="D150">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E150">
+        <v>477.8065747990632</v>
+      </c>
+      <c r="F150">
+        <v>4.028181414475049</v>
+      </c>
+      <c r="G150">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>14.89999999999996</v>
+      </c>
+      <c r="C151">
+        <v>2.233194768673578</v>
+      </c>
+      <c r="D151">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E151">
+        <v>477.8065747990631</v>
+      </c>
+      <c r="F151">
+        <v>4.028181414475058</v>
+      </c>
+      <c r="G151">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>14.99999999999996</v>
+      </c>
+      <c r="C152">
+        <v>2.181165674797947</v>
+      </c>
+      <c r="D152">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E152">
+        <v>477.8065747990628</v>
+      </c>
+      <c r="F152">
+        <v>4.028181414475068</v>
+      </c>
+      <c r="G152">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>15.09999999999996</v>
+      </c>
+      <c r="C153">
+        <v>2.129136580922316</v>
+      </c>
+      <c r="D153">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E153">
+        <v>477.8065747990625</v>
+      </c>
+      <c r="F153">
+        <v>4.028181414475078</v>
+      </c>
+      <c r="G153">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>15.19999999999996</v>
+      </c>
+      <c r="C154">
+        <v>2.077107487046685</v>
+      </c>
+      <c r="D154">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E154">
+        <v>477.8065747990623</v>
+      </c>
+      <c r="F154">
+        <v>4.028181414475087</v>
+      </c>
+      <c r="G154">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>15.29999999999996</v>
+      </c>
+      <c r="C155">
+        <v>2.025078393171054</v>
+      </c>
+      <c r="D155">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E155">
+        <v>477.8065747990621</v>
+      </c>
+      <c r="F155">
+        <v>4.028181414475092</v>
+      </c>
+      <c r="G155">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>15.39999999999996</v>
+      </c>
+      <c r="C156">
+        <v>1.973049299295423</v>
+      </c>
+      <c r="D156">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E156">
+        <v>477.8065747990618</v>
+      </c>
+      <c r="F156">
+        <v>4.028181414475104</v>
+      </c>
+      <c r="G156">
+        <v>93.55461219592132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>15.49999999999996</v>
+      </c>
+      <c r="C157">
+        <v>1.921020205419792</v>
+      </c>
+      <c r="D157">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E157">
+        <v>477.8065747990614</v>
+      </c>
+      <c r="F157">
+        <v>4.028181414475124</v>
+      </c>
+      <c r="G157">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>15.59999999999996</v>
+      </c>
+      <c r="C158">
+        <v>1.868991111544161</v>
+      </c>
+      <c r="D158">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E158">
+        <v>477.8065747990611</v>
+      </c>
+      <c r="F158">
+        <v>4.028181414475132</v>
+      </c>
+      <c r="G158">
+        <v>93.55461219592141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>15.69999999999996</v>
+      </c>
+      <c r="C159">
+        <v>1.81696201766853</v>
+      </c>
+      <c r="D159">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E159">
+        <v>477.8065747990608</v>
+      </c>
+      <c r="F159">
+        <v>4.028181414475144</v>
+      </c>
+      <c r="G159">
+        <v>93.55461219592141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>15.79999999999996</v>
+      </c>
+      <c r="C160">
+        <v>1.764932923792899</v>
+      </c>
+      <c r="D160">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E160">
+        <v>477.8065747990605</v>
+      </c>
+      <c r="F160">
+        <v>4.028181414475158</v>
+      </c>
+      <c r="G160">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>15.89999999999996</v>
+      </c>
+      <c r="C161">
+        <v>1.712903829917268</v>
+      </c>
+      <c r="D161">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E161">
+        <v>477.8065747990601</v>
+      </c>
+      <c r="F161">
+        <v>4.028181414475171</v>
+      </c>
+      <c r="G161">
+        <v>93.55461219592138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>15.99999999999996</v>
+      </c>
+      <c r="C162">
+        <v>1.660874736041637</v>
+      </c>
+      <c r="D162">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E162">
+        <v>477.8065747990597</v>
+      </c>
+      <c r="F162">
+        <v>4.028181414475187</v>
+      </c>
+      <c r="G162">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>16.09999999999996</v>
+      </c>
+      <c r="C163">
+        <v>1.608845642166006</v>
+      </c>
+      <c r="D163">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E163">
+        <v>477.8065747990593</v>
+      </c>
+      <c r="F163">
+        <v>4.028181414475206</v>
+      </c>
+      <c r="G163">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>16.19999999999996</v>
+      </c>
+      <c r="C164">
+        <v>1.556816548290374</v>
+      </c>
+      <c r="D164">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E164">
+        <v>477.8065747990589</v>
+      </c>
+      <c r="F164">
+        <v>4.02818141447522</v>
+      </c>
+      <c r="G164">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>16.29999999999996</v>
+      </c>
+      <c r="C165">
+        <v>1.504787454414742</v>
+      </c>
+      <c r="D165">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E165">
+        <v>477.8065747990584</v>
+      </c>
+      <c r="F165">
+        <v>4.02818141447524</v>
+      </c>
+      <c r="G165">
+        <v>93.55461219592139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>16.39999999999996</v>
+      </c>
+      <c r="C166">
+        <v>1.452758360539111</v>
+      </c>
+      <c r="D166">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E166">
+        <v>477.8065747990579</v>
+      </c>
+      <c r="F166">
+        <v>4.028181414475259</v>
+      </c>
+      <c r="G166">
+        <v>93.55461219592141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>16.49999999999996</v>
+      </c>
+      <c r="C167">
+        <v>1.400729266663479</v>
+      </c>
+      <c r="D167">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E167">
+        <v>477.8065747990574</v>
+      </c>
+      <c r="F167">
+        <v>4.028181414475279</v>
+      </c>
+      <c r="G167">
+        <v>93.55461219592141</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>16.59999999999997</v>
+      </c>
+      <c r="C168">
+        <v>1.348700172787847</v>
+      </c>
+      <c r="D168">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E168">
+        <v>477.8065747990568</v>
+      </c>
+      <c r="F168">
+        <v>4.028181414475304</v>
+      </c>
+      <c r="G168">
+        <v>93.55461219592141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>16.69999999999997</v>
+      </c>
+      <c r="C169">
+        <v>1.296671078912216</v>
+      </c>
+      <c r="D169">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E169">
+        <v>477.8065747990561</v>
+      </c>
+      <c r="F169">
+        <v>4.028181414475328</v>
+      </c>
+      <c r="G169">
+        <v>93.55461219592146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>16.79999999999997</v>
+      </c>
+      <c r="C170">
+        <v>1.244641985036584</v>
+      </c>
+      <c r="D170">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E170">
+        <v>477.8065747990555</v>
+      </c>
+      <c r="F170">
+        <v>4.028181414475354</v>
+      </c>
+      <c r="G170">
+        <v>93.55461219592146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>16.89999999999997</v>
+      </c>
+      <c r="C171">
+        <v>1.192612891160952</v>
+      </c>
+      <c r="D171">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E171">
+        <v>477.8065747990547</v>
+      </c>
+      <c r="F171">
+        <v>4.028181414475388</v>
+      </c>
+      <c r="G171">
+        <v>93.55461219592146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>16.99999999999997</v>
+      </c>
+      <c r="C172">
+        <v>1.14058379728532</v>
+      </c>
+      <c r="D172">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E172">
+        <v>477.8065747990539</v>
+      </c>
+      <c r="F172">
+        <v>4.028181414475419</v>
+      </c>
+      <c r="G172">
+        <v>93.55461219592144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>17.09999999999997</v>
+      </c>
+      <c r="C173">
+        <v>1.088554703409689</v>
+      </c>
+      <c r="D173">
+        <v>0.520290938756311</v>
+      </c>
+      <c r="E173">
+        <v>477.806574799053</v>
+      </c>
+      <c r="F173">
+        <v>4.028181414475453</v>
+      </c>
+      <c r="G173">
+        <v>93.55461219592146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>17.19999999999997</v>
+      </c>
+      <c r="C174">
+        <v>1.036512277868592</v>
+      </c>
+      <c r="D174">
+        <v>0.5158816935126136</v>
+      </c>
+      <c r="E174">
+        <v>475.4330991129313</v>
+      </c>
+      <c r="F174">
+        <v>3.913235811364726</v>
+      </c>
+      <c r="G174">
+        <v>91.99095473609763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>17.29999999999998</v>
+      </c>
+      <c r="C175">
+        <v>0.985558660201062</v>
+      </c>
+      <c r="D175">
+        <v>0.5026539577815209</v>
+      </c>
+      <c r="E175">
+        <v>460.6282721405325</v>
+      </c>
+      <c r="F175">
+        <v>3.861785661138322</v>
+      </c>
+      <c r="G175">
+        <v>87.42518385943838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>17.39999999999998</v>
+      </c>
+      <c r="C176">
+        <v>0.9359846540336105</v>
+      </c>
+      <c r="D176">
+        <v>0.4872215994285795</v>
+      </c>
+      <c r="E176">
+        <v>445.3784474651479</v>
+      </c>
+      <c r="F176">
+        <v>3.72749237278772</v>
+      </c>
+      <c r="G176">
+        <v>82.22880988801442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>17.49999999999998</v>
+      </c>
+      <c r="C177">
+        <v>0.8879538837014532</v>
+      </c>
+      <c r="D177">
+        <v>0.471789241075638</v>
+      </c>
+      <c r="E177">
+        <v>429.7957058298688</v>
+      </c>
+      <c r="F177">
+        <v>3.607778055614562</v>
+      </c>
+      <c r="G177">
+        <v>77.18908040155053</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>17.59999999999998</v>
+      </c>
+      <c r="C178">
+        <v>0.8414663492045902</v>
+      </c>
+      <c r="D178">
+        <v>0.4563568827226966</v>
+      </c>
+      <c r="E178">
+        <v>413.9459152409879</v>
+      </c>
+      <c r="F178">
+        <v>3.499697685299724</v>
+      </c>
+      <c r="G178">
+        <v>72.30571122110851</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>17.69999999999998</v>
+      </c>
+      <c r="C179">
+        <v>0.7965220505430213</v>
+      </c>
+      <c r="D179">
+        <v>0.4409245243697552</v>
+      </c>
+      <c r="E179">
+        <v>397.8946478769464</v>
+      </c>
+      <c r="F179">
+        <v>3.400703569421109</v>
+      </c>
+      <c r="G179">
+        <v>67.57851150159341</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>17.79999999999998</v>
+      </c>
+      <c r="C180">
+        <v>0.7532645178353564</v>
+      </c>
+      <c r="D180">
+        <v>0.4254921660168137</v>
+      </c>
+      <c r="E180">
+        <v>381.7616303943867</v>
+      </c>
+      <c r="F180">
+        <v>3.306528612905637</v>
+      </c>
+      <c r="G180">
+        <v>63.00712080945075</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>17.89999999999998</v>
+      </c>
+      <c r="C181">
+        <v>0.7115080192393781</v>
+      </c>
+      <c r="D181">
+        <v>0.4078551850420235</v>
+      </c>
+      <c r="E181">
+        <v>365.5442494980205</v>
+      </c>
+      <c r="F181">
+        <v>3.122510023069778</v>
+      </c>
+      <c r="G181">
+        <v>57.96354659948921</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>17.99999999999999</v>
+      </c>
+      <c r="C182">
+        <v>0.6714138903458766</v>
+      </c>
+      <c r="D182">
+        <v>0.3924228266890821</v>
+      </c>
+      <c r="E182">
+        <v>349.3702381499785</v>
+      </c>
+      <c r="F182">
+        <v>3.033564291975614</v>
+      </c>
+      <c r="G182">
+        <v>53.72718817312289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>18.09999999999999</v>
+      </c>
+      <c r="C183">
+        <v>0.6330065274062792</v>
+      </c>
+      <c r="D183">
+        <v>0.3769904683361407</v>
+      </c>
+      <c r="E183">
+        <v>333.3174322533081</v>
+      </c>
+      <c r="F183">
+        <v>2.942513887817163</v>
+      </c>
+      <c r="G183">
+        <v>49.64695351984464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>18.19999999999999</v>
+      </c>
+      <c r="C184">
+        <v>0.5961001985783682</v>
+      </c>
+      <c r="D184">
+        <v>0.3593534873613505</v>
+      </c>
+      <c r="E184">
+        <v>317.3712316259064</v>
+      </c>
+      <c r="F184">
+        <v>2.758387117928923</v>
+      </c>
+      <c r="G184">
+        <v>45.16750730901805</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>18.29999999999999</v>
+      </c>
+      <c r="C185">
+        <v>0.5608562394529339</v>
+      </c>
+      <c r="D185">
+        <v>0.343921129008409</v>
+      </c>
+      <c r="E185">
+        <v>301.6623252914099</v>
+      </c>
+      <c r="F185">
+        <v>2.659607979666117</v>
+      </c>
+      <c r="G185">
+        <v>41.4238441358245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>18.39999999999999</v>
+      </c>
+      <c r="C186">
+        <v>0.5272990462814039</v>
+      </c>
+      <c r="D186">
+        <v>0.3284887706554676</v>
+      </c>
+      <c r="E186">
+        <v>286.2646184007968</v>
+      </c>
+      <c r="F186">
+        <v>2.552515413253313</v>
+      </c>
+      <c r="G186">
+        <v>37.83737927226492</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>18.49999999999999</v>
+      </c>
+      <c r="C187">
+        <v>0.495285088945168</v>
+      </c>
+      <c r="D187">
+        <v>0.3130564123025262</v>
+      </c>
+      <c r="E187">
+        <v>271.1709997379115</v>
+      </c>
+      <c r="F187">
+        <v>2.437441635424651</v>
+      </c>
+      <c r="G187">
+        <v>34.40880416696045</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>18.59999999999999</v>
+      </c>
+      <c r="C188">
+        <v>0.4647432956624754</v>
+      </c>
+      <c r="D188">
+        <v>0.2976240539495847</v>
+      </c>
+      <c r="E188">
+        <v>256.4007995739148</v>
+      </c>
+      <c r="F188">
+        <v>2.313972547319361</v>
+      </c>
+      <c r="G188">
+        <v>31.13873445316113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>18.7</v>
+      </c>
+      <c r="C189">
+        <v>0.4356722798782178</v>
+      </c>
+      <c r="D189">
+        <v>0.2821916955966433</v>
+      </c>
+      <c r="E189">
+        <v>242.0031222015333</v>
+      </c>
+      <c r="F189">
+        <v>2.18094877242785</v>
+      </c>
+      <c r="G189">
+        <v>28.02773212907169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>18.8</v>
+      </c>
+      <c r="C190">
+        <v>0.4081156298711112</v>
+      </c>
+      <c r="D190">
+        <v>0.2667593372437019</v>
+      </c>
+      <c r="E190">
+        <v>228.0482468386172</v>
+      </c>
+      <c r="F190">
+        <v>2.036984296596468</v>
+      </c>
+      <c r="G190">
+        <v>25.07635578099343</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>18.9</v>
+      </c>
+      <c r="C191">
+        <v>0.3820031760487215</v>
+      </c>
+      <c r="D191">
+        <v>0.2535316015126092</v>
+      </c>
+      <c r="E191">
+        <v>214.5469792063891</v>
+      </c>
+      <c r="F191">
+        <v>1.963473204282949</v>
+      </c>
+      <c r="G191">
+        <v>22.6780242399618</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>0.3573836072317693</v>
+      </c>
+      <c r="D192">
+        <v>0.2403038657815166</v>
+      </c>
+      <c r="E192">
+        <v>201.5685040531138</v>
+      </c>
+      <c r="F192">
+        <v>1.875440768560763</v>
+      </c>
+      <c r="G192">
+        <v>20.39695706716347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>19.1</v>
+      </c>
+      <c r="C193">
+        <v>0.3340868119879263</v>
+      </c>
+      <c r="D193">
+        <v>0.2270761300504239</v>
+      </c>
+      <c r="E193">
+        <v>189.0633966676407</v>
+      </c>
+      <c r="F193">
+        <v>1.774163592000472</v>
+      </c>
+      <c r="G193">
+        <v>18.2338353442003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>19.2</v>
+      </c>
+      <c r="C194">
+        <v>0.312070588593585</v>
+      </c>
+      <c r="D194">
+        <v>0.2138483943193313</v>
+      </c>
+      <c r="E194">
+        <v>177.0444143406394</v>
+      </c>
+      <c r="F194">
+        <v>1.659558147786939</v>
+      </c>
+      <c r="G194">
+        <v>16.18920527790482</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>19.3</v>
+      </c>
+      <c r="C195">
+        <v>0.2914193404959606</v>
+      </c>
+      <c r="D195">
+        <v>0.2006206585882386</v>
+      </c>
+      <c r="E195">
+        <v>165.5919101826837</v>
+      </c>
+      <c r="F195">
+        <v>1.530318189929085</v>
+      </c>
+      <c r="G195">
+        <v>14.26352225902725</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>19.40000000000001</v>
+      </c>
+      <c r="C196">
+        <v>0.2718194261441151</v>
+      </c>
+      <c r="D196">
+        <v>0.1895975454789947</v>
+      </c>
+      <c r="E196">
+        <v>154.5616739365704</v>
+      </c>
+      <c r="F196">
+        <v>1.468269613649703</v>
+      </c>
+      <c r="G196">
+        <v>12.75238817725075</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>19.50000000000001</v>
+      </c>
+      <c r="C197">
+        <v>0.2534208627537712</v>
+      </c>
+      <c r="D197">
+        <v>0.1785744323697508</v>
+      </c>
+      <c r="E197">
+        <v>144.0643977499317</v>
+      </c>
+      <c r="F197">
+        <v>1.391660613439159</v>
+      </c>
+      <c r="G197">
+        <v>11.32397430864461</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>19.60000000000001</v>
+      </c>
+      <c r="C198">
+        <v>0.2361246106743518</v>
+      </c>
+      <c r="D198">
+        <v>0.167551319260507</v>
+      </c>
+      <c r="E198">
+        <v>134.0691047548593</v>
+      </c>
+      <c r="F198">
+        <v>1.301162517006502</v>
+      </c>
+      <c r="G198">
+        <v>9.978711878205026</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>19.70000000000001</v>
+      </c>
+      <c r="C199">
+        <v>0.2200017416876076</v>
+      </c>
+      <c r="D199">
+        <v>0.1565282061512631</v>
+      </c>
+      <c r="E199">
+        <v>124.6406636082671</v>
+      </c>
+      <c r="F199">
+        <v>1.195619437159003</v>
+      </c>
+      <c r="G199">
+        <v>8.716925456433017</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>19.80000000000001</v>
+      </c>
+      <c r="C200">
+        <v>0.2049523139536446</v>
+      </c>
+      <c r="D200">
+        <v>0.1455050930420192</v>
+      </c>
+      <c r="E200">
+        <v>115.7427452458448</v>
+      </c>
+      <c r="F200">
+        <v>1.078207535907943</v>
+      </c>
+      <c r="G200">
+        <v>7.539032001300241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>19.90000000000001</v>
+      </c>
+      <c r="C201">
+        <v>0.1907626277614188</v>
+      </c>
+      <c r="D201">
+        <v>0.1366866025546241</v>
+      </c>
+      <c r="E201">
+        <v>107.2668689378874</v>
+      </c>
+      <c r="F201">
+        <v>1.021977008547786</v>
+      </c>
+      <c r="G201">
+        <v>6.658524585128286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>20.00000000000001</v>
+      </c>
+      <c r="C202">
+        <v>0.1774547906179326</v>
+      </c>
+      <c r="D202">
+        <v>0.127868112067229</v>
+      </c>
+      <c r="E202">
+        <v>99.24139774924257</v>
+      </c>
+      <c r="F202">
+        <v>0.9544891772246609</v>
+      </c>
+      <c r="G202">
+        <v>5.83178674328957</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>20.10000000000002</v>
+      </c>
+      <c r="C203">
+        <v>0.1650288025231859</v>
+      </c>
+      <c r="D203">
+        <v>0.1190496215798339</v>
+      </c>
+      <c r="E203">
+        <v>91.68081598599517</v>
+      </c>
+      <c r="F203">
+        <v>0.8757404611491989</v>
+      </c>
+      <c r="G203">
+        <v>5.059028626559434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>20.20000000000002</v>
+      </c>
+      <c r="C204">
+        <v>0.1535557352589296</v>
+      </c>
+      <c r="D204">
+        <v>0.1102311310924388</v>
+      </c>
+      <c r="E204">
+        <v>84.64248881302122</v>
+      </c>
+      <c r="F204">
+        <v>0.7858439781667397</v>
+      </c>
+      <c r="G204">
+        <v>4.340437008160849</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>20.30000000000002</v>
+      </c>
+      <c r="C205">
+        <v>0.1428343185902673</v>
+      </c>
+      <c r="D205">
+        <v>0.1036172632268925</v>
+      </c>
+      <c r="E205">
+        <v>78.01519619440734</v>
+      </c>
+      <c r="F205">
+        <v>0.7514232344053473</v>
+      </c>
+      <c r="G205">
+        <v>3.837843934004245</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>20.40000000000002</v>
+      </c>
+      <c r="C206">
+        <v>0.132875617103162</v>
+      </c>
+      <c r="D206">
+        <v>0.09700339536134613</v>
+      </c>
+      <c r="E206">
+        <v>71.81591688248368</v>
+      </c>
+      <c r="F206">
+        <v>0.7071991591775033</v>
+      </c>
+      <c r="G206">
+        <v>3.365721714835478</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>20.50000000000002</v>
+      </c>
+      <c r="C207">
+        <v>0.1235783024026112</v>
+      </c>
+      <c r="D207">
+        <v>0.0903895274957998</v>
+      </c>
+      <c r="E207">
+        <v>65.99049313422182</v>
+      </c>
+      <c r="F207">
+        <v>0.6542669284096869</v>
+      </c>
+      <c r="G207">
+        <v>2.924199431963798</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>20.60000000000002</v>
+      </c>
+      <c r="C208">
+        <v>0.1149423744886152</v>
+      </c>
+      <c r="D208">
+        <v>0.08377565963025348</v>
+      </c>
+      <c r="E208">
+        <v>60.54665613158964</v>
+      </c>
+      <c r="F208">
+        <v>0.5930471426399074</v>
+      </c>
+      <c r="G208">
+        <v>2.513375273381876</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>20.70000000000002</v>
+      </c>
+      <c r="C209">
+        <v>0.1068243032425638</v>
+      </c>
+      <c r="D209">
+        <v>0.07716179176470715</v>
+      </c>
+      <c r="E209">
+        <v>55.40038089090926</v>
+      </c>
+      <c r="F209">
+        <v>0.5268262674651021</v>
+      </c>
+      <c r="G209">
+        <v>2.133364715497016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>20.80000000000003</v>
+      </c>
+      <c r="C210">
+        <v>0.09948089228842566</v>
+      </c>
+      <c r="D210">
+        <v>0.0727525465210096</v>
+      </c>
+      <c r="E210">
+        <v>50.72103124885587</v>
+      </c>
+      <c r="F210">
+        <v>0.5095894414819645</v>
+      </c>
+      <c r="G210">
+        <v>1.897472860050974</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>20.90000000000003</v>
+      </c>
+      <c r="C211">
+        <v>0.09246513235329869</v>
+      </c>
+      <c r="D211">
+        <v>0.06613867865546327</v>
+      </c>
+      <c r="E211">
+        <v>46.22899881331949</v>
+      </c>
+      <c r="F211">
+        <v>0.4321928664492508</v>
+      </c>
+      <c r="G211">
+        <v>1.568922400289414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>21.00000000000003</v>
+      </c>
+      <c r="C212">
+        <v>0.08591039115914688</v>
+      </c>
+      <c r="D212">
+        <v>0.06172943341176572</v>
+      </c>
+      <c r="E212">
+        <v>42.01316029264064</v>
+      </c>
+      <c r="F212">
+        <v>0.405144032026493</v>
+      </c>
+      <c r="G212">
+        <v>1.367333649205269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>21.10000000000003</v>
+      </c>
+      <c r="C213">
+        <v>0.0799378158635497</v>
+      </c>
+      <c r="D213">
+        <v>0.05732018816806817</v>
+      </c>
+      <c r="E213">
+        <v>38.15576181308157</v>
+      </c>
+      <c r="F213">
+        <v>0.3716371379434357</v>
+      </c>
+      <c r="G213">
+        <v>1.179474898353466</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>21.20000000000003</v>
+      </c>
+      <c r="C214">
+        <v>0.0744061650923223</v>
+      </c>
+      <c r="D214">
+        <v>0.05291094292437062</v>
+      </c>
+      <c r="E214">
+        <v>34.56951296001409</v>
+      </c>
+      <c r="F214">
+        <v>0.3337876177186508</v>
+      </c>
+      <c r="G214">
+        <v>1.005393471656876</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>21.30000000000003</v>
+      </c>
+      <c r="C215">
+        <v>0.06917419747127974</v>
+      </c>
+      <c r="D215">
+        <v>0.04850169768067306</v>
+      </c>
+      <c r="E215">
+        <v>31.16548266410714</v>
+      </c>
+      <c r="F215">
+        <v>0.293957979534809</v>
+      </c>
+      <c r="G215">
+        <v>0.8451282335123488</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>21.40000000000003</v>
+      </c>
+      <c r="C216">
+        <v>0.0644542261563579</v>
+      </c>
+      <c r="D216">
+        <v>0.04629707505882429</v>
+      </c>
+      <c r="E216">
+        <v>28.08448814046589</v>
+      </c>
+      <c r="F216">
+        <v>0.2963213687828082</v>
+      </c>
+      <c r="G216">
+        <v>0.7703084695198389</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>21.50000000000004</v>
+      </c>
+      <c r="C217">
+        <v>0.06012621509105718</v>
+      </c>
+      <c r="D217">
+        <v>0.04188782981512674</v>
+      </c>
+      <c r="E217">
+        <v>25.25093582478318</v>
+      </c>
+      <c r="F217">
+        <v>0.24783276564899</v>
+      </c>
+      <c r="G217">
+        <v>0.6307696026344024</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>21.60000000000004</v>
+      </c>
+      <c r="C218">
+        <v>0.05613780015512394</v>
+      </c>
+      <c r="D218">
+        <v>0.03747858457142919</v>
+      </c>
+      <c r="E218">
+        <v>22.63258452032709</v>
+      </c>
+      <c r="F218">
+        <v>0.201053657762622</v>
+      </c>
+      <c r="G218">
+        <v>0.5051134515890306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>21.70000000000004</v>
+      </c>
+      <c r="C219">
+        <v>0.05249127009298323</v>
+      </c>
+      <c r="D219">
+        <v>0.03527396194958041</v>
+      </c>
+      <c r="E219">
+        <v>20.23268439844178</v>
+      </c>
+      <c r="F219">
+        <v>0.1913017278931485</v>
+      </c>
+      <c r="G219">
+        <v>0.4475570323422523</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>21.80000000000004</v>
+      </c>
+      <c r="C220">
+        <v>0.04906520229302742</v>
+      </c>
+      <c r="D220">
+        <v>0.03306933932773164</v>
+      </c>
+      <c r="E220">
+        <v>17.97265767571777</v>
+      </c>
+      <c r="F220">
+        <v>0.1799709357743425</v>
+      </c>
+      <c r="G220">
+        <v>0.3934611070387684</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>21.90000000000004</v>
+      </c>
+      <c r="C221">
+        <v>0.0459586364058337</v>
+      </c>
+      <c r="D221">
+        <v>0.03086471670588286</v>
+      </c>
+      <c r="E221">
+        <v>15.91901709867377</v>
+      </c>
+      <c r="F221">
+        <v>0.1662771400551543</v>
+      </c>
+      <c r="G221">
+        <v>0.3428281161748313</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>22.00000000000004</v>
+      </c>
+      <c r="C222">
+        <v>0.04303033105721717</v>
+      </c>
+      <c r="D222">
+        <v>0.02645547146218531</v>
+      </c>
+      <c r="E222">
+        <v>13.97940552122327</v>
+      </c>
+      <c r="F222">
+        <v>0.1197429427654841</v>
+      </c>
+      <c r="G222">
+        <v>0.2519292507718252</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>22.10000000000004</v>
+      </c>
+      <c r="C223">
+        <v>0.04034258218739094</v>
+      </c>
+      <c r="D223">
+        <v>0.02425084884033653</v>
+      </c>
+      <c r="E223">
+        <v>12.19587168021025</v>
+      </c>
+      <c r="F223">
+        <v>0.1052913943948643</v>
+      </c>
+      <c r="G223">
+        <v>0.2117335878801285</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>22.20000000000005</v>
+      </c>
+      <c r="C224">
+        <v>0.03787529557974957</v>
+      </c>
+      <c r="D224">
+        <v>0.02204622621848776</v>
+      </c>
+      <c r="E224">
+        <v>10.55588431415378</v>
+      </c>
+      <c r="F224">
+        <v>0.09047118302559271</v>
+      </c>
+      <c r="G224">
+        <v>0.1750192319224786</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>22.30000000000005</v>
+      </c>
+      <c r="C225">
+        <v>0.03562847123429309</v>
+      </c>
+      <c r="D225">
+        <v>0.01984160359663898</v>
+      </c>
+      <c r="E225">
+        <v>9.060147165775662</v>
+      </c>
+      <c r="F225">
+        <v>0.07568437727750355</v>
+      </c>
+      <c r="G225">
+        <v>0.1417898674734899</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>22.40000000000005</v>
+      </c>
+      <c r="C226">
+        <v>0.03367318093277242</v>
+      </c>
+      <c r="D226">
+        <v>0.01763698097479021</v>
+      </c>
+      <c r="E226">
+        <v>7.756710733601782</v>
+      </c>
+      <c r="F226">
+        <v>0.06116992550878662</v>
+      </c>
+      <c r="G226">
+        <v>0.112048262742375</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>22.50000000000005</v>
+      </c>
+      <c r="C227">
+        <v>0.03190948283529338</v>
+      </c>
+      <c r="D227">
+        <v>0.01763698097479021</v>
+      </c>
+      <c r="E227">
+        <v>6.579574417918959</v>
+      </c>
+      <c r="F227">
+        <v>0.0663727344685036</v>
+      </c>
+      <c r="G227">
+        <v>0.1120634316756333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>22.60000000000005</v>
+      </c>
+      <c r="C228">
+        <v>0.0303883545070015</v>
+      </c>
+      <c r="D228">
+        <v>0.01543235835294143</v>
+      </c>
+      <c r="E228">
+        <v>5.563253724701872</v>
+      </c>
+      <c r="F228">
+        <v>0.05108903097422899</v>
+      </c>
+      <c r="G228">
+        <v>0.08580860997661226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>22.70000000000005</v>
+      </c>
+      <c r="C229">
+        <v>0.0289464470667096</v>
+      </c>
+      <c r="D229">
+        <v>0.01322773573109265</v>
+      </c>
+      <c r="E229">
+        <v>4.598938263053039</v>
+      </c>
+      <c r="F229">
+        <v>0.03779439687975811</v>
+      </c>
+      <c r="G229">
+        <v>0.06305007420331707</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>22.80000000000005</v>
+      </c>
+      <c r="C230">
+        <v>0.02765254355174358</v>
+      </c>
+      <c r="D230">
+        <v>0.01322773573109265</v>
+      </c>
+      <c r="E230">
+        <v>3.732837783578145</v>
+      </c>
+      <c r="F230">
+        <v>0.04020570531667685</v>
+      </c>
+      <c r="G230">
+        <v>0.06305638314076344</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>22.90000000000006</v>
+      </c>
+      <c r="C231">
+        <v>0.02655900808235704</v>
+      </c>
+      <c r="D231">
+        <v>0.01102311310924388</v>
+      </c>
+      <c r="E231">
+        <v>3.000292053708089</v>
+      </c>
+      <c r="F231">
+        <v>0.02777267171132258</v>
+      </c>
+      <c r="G231">
+        <v>0.04379286545072845</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>23.00000000000006</v>
+      </c>
+      <c r="C232">
+        <v>0.02555802516643491</v>
+      </c>
+      <c r="D232">
+        <v>0.008818490487395103</v>
+      </c>
+      <c r="E232">
+        <v>2.329291752162388</v>
+      </c>
+      <c r="F232">
+        <v>0.0177462497331165</v>
+      </c>
+      <c r="G232">
+        <v>0.02802961160736099</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>23.10000000000006</v>
+      </c>
+      <c r="C233">
+        <v>0.02467617611769539</v>
+      </c>
+      <c r="D233">
+        <v>0.008818490487395103</v>
+      </c>
+      <c r="E233">
+        <v>1.737791897496852</v>
+      </c>
+      <c r="F233">
+        <v>0.01849454574999944</v>
+      </c>
+      <c r="G233">
+        <v>0.02803153331045554</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>23.20000000000006</v>
+      </c>
+      <c r="C234">
+        <v>0.02402356517267861</v>
+      </c>
+      <c r="D234">
+        <v>0.006613867865546327</v>
+      </c>
+      <c r="E234">
+        <v>1.299836282050742</v>
+      </c>
+      <c r="F234">
+        <v>0.01029854455844207</v>
+      </c>
+      <c r="G234">
+        <v>0.01576853852625153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>23.30000000000006</v>
+      </c>
+      <c r="C235">
+        <v>0.02339104844426722</v>
+      </c>
+      <c r="D235">
+        <v>0.004409245243697552</v>
+      </c>
+      <c r="E235">
+        <v>0.875189270675742</v>
+      </c>
+      <c r="F235">
+        <v>0.004574953297400056</v>
+      </c>
+      <c r="G235">
+        <v>0.007008584790136108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>23.40000000000006</v>
+      </c>
+      <c r="C236">
+        <v>0.02295012391989746</v>
+      </c>
+      <c r="D236">
+        <v>0.004409245243697552</v>
+      </c>
+      <c r="E236">
+        <v>0.5790671282011</v>
+      </c>
+      <c r="F236">
+        <v>0.004667014275036399</v>
+      </c>
+      <c r="G236">
+        <v>0.007008825825656872</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>23.50000000000006</v>
+      </c>
+      <c r="C237">
+        <v>0.02261052779052998</v>
+      </c>
+      <c r="D237">
+        <v>0.004409245243697552</v>
+      </c>
+      <c r="E237">
+        <v>0.3509390077551852</v>
+      </c>
+      <c r="F237">
+        <v>0.004740542696594826</v>
+      </c>
+      <c r="G237">
+        <v>0.007009011596526392</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>23.60000000000007</v>
+      </c>
+      <c r="C238">
+        <v>0.02232776958813203</v>
+      </c>
+      <c r="D238">
+        <v>0.002204622621848776</v>
+      </c>
+      <c r="E238">
+        <v>0.1609543323280185</v>
+      </c>
+      <c r="F238">
+        <v>0.001178275754855153</v>
+      </c>
+      <c r="G238">
+        <v>0.001752291589947398</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>23.70000000000007</v>
+      </c>
+      <c r="C239">
+        <v>0.02210730732594715</v>
+      </c>
+      <c r="D239">
+        <v>0.002204622621848776</v>
+      </c>
+      <c r="E239">
+        <v>0.01280210891750881</v>
+      </c>
+      <c r="F239">
+        <v>0.001190172427768359</v>
+      </c>
+      <c r="G239">
+        <v>0.001752321769949373</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>23.80000000000007</v>
+      </c>
+      <c r="C240">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>23.90000000000007</v>
+      </c>
+      <c r="C241">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>24.00000000000007</v>
+      </c>
+      <c r="C242">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>24.10000000000007</v>
+      </c>
+      <c r="C243">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>24.20000000000007</v>
+      </c>
+      <c r="C244">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>24.30000000000008</v>
+      </c>
+      <c r="C245">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>24.40000000000008</v>
+      </c>
+      <c r="C246">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>24.50000000000008</v>
+      </c>
+      <c r="C247">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>24.60000000000008</v>
+      </c>
+      <c r="C248">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>24.70000000000008</v>
+      </c>
+      <c r="C249">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>24.80000000000008</v>
+      </c>
+      <c r="C250">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>24.90000000000008</v>
+      </c>
+      <c r="C251">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>25.00000000000009</v>
+      </c>
+      <c r="C252">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>25.10000000000009</v>
+      </c>
+      <c r="C253">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>25.20000000000009</v>
+      </c>
+      <c r="C254">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>25.30000000000009</v>
+      </c>
+      <c r="C255">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>25.40000000000009</v>
+      </c>
+      <c r="C256">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>25.50000000000009</v>
+      </c>
+      <c r="C257">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>25.60000000000009</v>
+      </c>
+      <c r="C258">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>25.7000000000001</v>
+      </c>
+      <c r="C259">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>25.8000000000001</v>
+      </c>
+      <c r="C260">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>25.9000000000001</v>
+      </c>
+      <c r="C261">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>26.0000000000001</v>
+      </c>
+      <c r="C262">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>26.1000000000001</v>
+      </c>
+      <c r="C263">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>26.2000000000001</v>
+      </c>
+      <c r="C264">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>26.3000000000001</v>
+      </c>
+      <c r="C265">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>26.40000000000011</v>
+      </c>
+      <c r="C266">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>26.50000000000011</v>
+      </c>
+      <c r="C267">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>26.60000000000011</v>
+      </c>
+      <c r="C268">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>26.70000000000011</v>
+      </c>
+      <c r="C269">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>26.80000000000011</v>
+      </c>
+      <c r="C270">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>26.90000000000011</v>
+      </c>
+      <c r="C271">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>27.00000000000011</v>
+      </c>
+      <c r="C272">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>27.10000000000012</v>
+      </c>
+      <c r="C273">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>27.20000000000012</v>
+      </c>
+      <c r="C274">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>27.30000000000012</v>
+      </c>
+      <c r="C275">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>27.40000000000012</v>
+      </c>
+      <c r="C276">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>27.50000000000012</v>
+      </c>
+      <c r="C277">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>27.60000000000012</v>
+      </c>
+      <c r="C278">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>27.70000000000012</v>
+      </c>
+      <c r="C279">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>27.80000000000013</v>
+      </c>
+      <c r="C280">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>27.90000000000013</v>
+      </c>
+      <c r="C281">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>28.00000000000013</v>
+      </c>
+      <c r="C282">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>28.10000000000013</v>
+      </c>
+      <c r="C283">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>28.20000000000013</v>
+      </c>
+      <c r="C284">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>28.26120685358256</v>
+      </c>
+      <c r="C285">
+        <v>0.02198817345876454</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>-0.06726548229501465</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,16 +426,16 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.707683861613457</v>
+        <v>0.7209115973445497</v>
       </c>
       <c r="E2">
-        <v>649.9999999999973</v>
+        <v>649.9999999999842</v>
       </c>
       <c r="F2">
-        <v>4.898449479264497</v>
+        <v>158.9984981846801</v>
       </c>
       <c r="G2">
-        <v>171.1320422059235</v>
+        <v>175.7781060991695</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,19 +446,19 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>9.936391436230513</v>
+        <v>9.937986486825499</v>
       </c>
       <c r="D3">
-        <v>0.5886342400336232</v>
+        <v>0.5224955613781599</v>
       </c>
       <c r="E3">
-        <v>550.4312715951089</v>
+        <v>545.1861520423458</v>
       </c>
       <c r="F3">
-        <v>4.457917681215194</v>
+        <v>115.1016050540026</v>
       </c>
       <c r="G3">
-        <v>119.1557759349596</v>
+        <v>92.91109227456398</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,19 +469,19 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>9.881471568391351</v>
+        <v>9.889321870467123</v>
       </c>
       <c r="D4">
-        <v>0.520290938756311</v>
+        <v>0.4519476374789991</v>
       </c>
       <c r="E4">
-        <v>477.8065747990704</v>
+        <v>467.2462308800759</v>
       </c>
       <c r="F4">
-        <v>4.028181414474769</v>
+        <v>101.5088493601368</v>
       </c>
       <c r="G4">
-        <v>93.55461219592132</v>
+        <v>69.8570891912203</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,19 +492,19 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>9.829442474515719</v>
+        <v>9.844928578901541</v>
       </c>
       <c r="D5">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E5">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F5">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G5">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -515,19 +515,19 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>9.777413380640089</v>
+        <v>9.800615664202381</v>
       </c>
       <c r="D6">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E6">
-        <v>477.8065747990704</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F6">
-        <v>4.028181414474769</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G6">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -538,19 +538,19 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>9.725384286764458</v>
+        <v>9.75630274950322</v>
       </c>
       <c r="D7">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E7">
-        <v>477.8065747990703</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F7">
-        <v>4.028181414474775</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G7">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -561,19 +561,19 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>9.673355192888826</v>
+        <v>9.71198983480406</v>
       </c>
       <c r="D8">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E8">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F8">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G8">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -584,19 +584,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>9.621326099013196</v>
+        <v>9.667676920104897</v>
       </c>
       <c r="D9">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E9">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F9">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G9">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -607,19 +607,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C10">
-        <v>9.569297005137564</v>
+        <v>9.623364005405737</v>
       </c>
       <c r="D10">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E10">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F10">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G10">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -630,19 +630,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>9.517267911261932</v>
+        <v>9.579051090706576</v>
       </c>
       <c r="D11">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E11">
-        <v>477.8065747990703</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F11">
-        <v>4.028181414474775</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G11">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -653,19 +653,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C12">
-        <v>9.465238817386302</v>
+        <v>9.534738176007416</v>
       </c>
       <c r="D12">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E12">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F12">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G12">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -676,19 +676,19 @@
         <v>1.1</v>
       </c>
       <c r="C13">
-        <v>9.41320972351067</v>
+        <v>9.490425261308255</v>
       </c>
       <c r="D13">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E13">
-        <v>477.8065747990703</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F13">
-        <v>4.028181414474775</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G13">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -699,19 +699,19 @@
         <v>1.2</v>
       </c>
       <c r="C14">
-        <v>9.361180629635038</v>
+        <v>9.446112346609093</v>
       </c>
       <c r="D14">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E14">
-        <v>477.8065747990703</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F14">
-        <v>4.028181414474775</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G14">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -722,19 +722,19 @@
         <v>1.3</v>
       </c>
       <c r="C15">
-        <v>9.309151535759408</v>
+        <v>9.401799431909932</v>
       </c>
       <c r="D15">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E15">
-        <v>477.8065747990703</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F15">
-        <v>4.028181414474775</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G15">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -745,19 +745,19 @@
         <v>1.4</v>
       </c>
       <c r="C16">
-        <v>9.257122441883777</v>
+        <v>9.357486517210772</v>
       </c>
       <c r="D16">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E16">
-        <v>477.8065747990703</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F16">
-        <v>4.028181414474775</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G16">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -768,19 +768,19 @@
         <v>1.5</v>
       </c>
       <c r="C17">
-        <v>9.205093348008145</v>
+        <v>9.313173602511611</v>
       </c>
       <c r="D17">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E17">
-        <v>477.8065747990702</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F17">
-        <v>4.028181414474778</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G17">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -791,19 +791,19 @@
         <v>1.6</v>
       </c>
       <c r="C18">
-        <v>9.153064254132513</v>
+        <v>9.268860687812451</v>
       </c>
       <c r="D18">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E18">
-        <v>477.8065747990702</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F18">
-        <v>4.028181414474778</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G18">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -814,19 +814,19 @@
         <v>1.7</v>
       </c>
       <c r="C19">
-        <v>9.101035160256883</v>
+        <v>9.224547773113288</v>
       </c>
       <c r="D19">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E19">
-        <v>477.8065747990702</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F19">
-        <v>4.028181414474778</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G19">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -837,19 +837,19 @@
         <v>1.8</v>
       </c>
       <c r="C20">
-        <v>9.049006066381251</v>
+        <v>9.180234858414128</v>
       </c>
       <c r="D20">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E20">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F20">
-        <v>4.028181414474782</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G20">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -860,19 +860,19 @@
         <v>1.900000000000001</v>
       </c>
       <c r="C21">
-        <v>8.996976972505619</v>
+        <v>9.135921943714967</v>
       </c>
       <c r="D21">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E21">
-        <v>477.8065747990702</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F21">
-        <v>4.028181414474778</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G21">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -883,19 +883,19 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>8.944947878629989</v>
+        <v>9.091609029015807</v>
       </c>
       <c r="D22">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E22">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F22">
-        <v>4.028181414474782</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G22">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -906,19 +906,19 @@
         <v>2.100000000000001</v>
       </c>
       <c r="C23">
-        <v>8.892918784754357</v>
+        <v>9.047296114316646</v>
       </c>
       <c r="D23">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E23">
-        <v>477.8065747990701</v>
+        <v>457.5287977924556</v>
       </c>
       <c r="F23">
-        <v>4.028181414474782</v>
+        <v>99.74630167052909</v>
       </c>
       <c r="G23">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -929,19 +929,19 @@
         <v>2.200000000000001</v>
       </c>
       <c r="C24">
-        <v>8.840889690878726</v>
+        <v>9.002983199617486</v>
       </c>
       <c r="D24">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E24">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F24">
-        <v>4.028181414474782</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G24">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -952,19 +952,19 @@
         <v>2.300000000000001</v>
       </c>
       <c r="C25">
-        <v>8.788860597003096</v>
+        <v>8.958670284918323</v>
       </c>
       <c r="D25">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E25">
-        <v>477.8065747990702</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F25">
-        <v>4.028181414474778</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G25">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -975,19 +975,19 @@
         <v>2.400000000000001</v>
       </c>
       <c r="C26">
-        <v>8.736831503127464</v>
+        <v>8.914357370219163</v>
       </c>
       <c r="D26">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E26">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F26">
-        <v>4.028181414474782</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G26">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -998,19 +998,19 @@
         <v>2.500000000000001</v>
       </c>
       <c r="C27">
-        <v>8.684802409251832</v>
+        <v>8.870044455520002</v>
       </c>
       <c r="D27">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E27">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F27">
-        <v>4.028181414474782</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G27">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1021,19 +1021,19 @@
         <v>2.600000000000001</v>
       </c>
       <c r="C28">
-        <v>8.632773315376202</v>
+        <v>8.825731540820842</v>
       </c>
       <c r="D28">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E28">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F28">
-        <v>4.028181414474782</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G28">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1044,19 +1044,19 @@
         <v>2.700000000000001</v>
       </c>
       <c r="C29">
-        <v>8.58074422150057</v>
+        <v>8.781418626121681</v>
       </c>
       <c r="D29">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E29">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F29">
-        <v>4.028181414474783</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G29">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1067,19 +1067,19 @@
         <v>2.800000000000001</v>
       </c>
       <c r="C30">
-        <v>8.528715127624938</v>
+        <v>8.737105711422519</v>
       </c>
       <c r="D30">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E30">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F30">
-        <v>4.028181414474783</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G30">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1090,19 +1090,19 @@
         <v>2.900000000000001</v>
       </c>
       <c r="C31">
-        <v>8.476686033749308</v>
+        <v>8.692792796723358</v>
       </c>
       <c r="D31">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E31">
-        <v>477.80657479907</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F31">
-        <v>4.028181414474785</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G31">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1113,19 +1113,19 @@
         <v>3.000000000000001</v>
       </c>
       <c r="C32">
-        <v>8.424656939873676</v>
+        <v>8.648479882024198</v>
       </c>
       <c r="D32">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E32">
-        <v>477.8065747990701</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F32">
-        <v>4.028181414474783</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G32">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1136,19 +1136,19 @@
         <v>3.100000000000001</v>
       </c>
       <c r="C33">
-        <v>8.372627845998045</v>
+        <v>8.604166967325037</v>
       </c>
       <c r="D33">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E33">
-        <v>477.80657479907</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F33">
-        <v>4.028181414474785</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G33">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1159,19 +1159,19 @@
         <v>3.200000000000002</v>
       </c>
       <c r="C34">
-        <v>8.320598752122415</v>
+        <v>8.559854052625877</v>
       </c>
       <c r="D34">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E34">
-        <v>477.80657479907</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F34">
-        <v>4.028181414474785</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G34">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1182,19 +1182,19 @@
         <v>3.300000000000002</v>
       </c>
       <c r="C35">
-        <v>8.268569658246783</v>
+        <v>8.515541137926714</v>
       </c>
       <c r="D35">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E35">
-        <v>477.80657479907</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F35">
-        <v>4.028181414474785</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G35">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1205,19 +1205,19 @@
         <v>3.400000000000002</v>
       </c>
       <c r="C36">
-        <v>8.216540564371151</v>
+        <v>8.471228223227554</v>
       </c>
       <c r="D36">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E36">
-        <v>477.80657479907</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F36">
-        <v>4.028181414474785</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G36">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1228,19 +1228,19 @@
         <v>3.500000000000002</v>
       </c>
       <c r="C37">
-        <v>8.164511470495521</v>
+        <v>8.426915308528393</v>
       </c>
       <c r="D37">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E37">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F37">
-        <v>4.028181414474788</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G37">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1251,19 +1251,19 @@
         <v>3.600000000000002</v>
       </c>
       <c r="C38">
-        <v>8.112482376619889</v>
+        <v>8.382602393829233</v>
       </c>
       <c r="D38">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E38">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F38">
-        <v>4.028181414474788</v>
+        <v>99.74630167052916</v>
       </c>
       <c r="G38">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1274,19 +1274,19 @@
         <v>3.700000000000002</v>
       </c>
       <c r="C39">
-        <v>8.060453282744257</v>
+        <v>8.338289479130072</v>
       </c>
       <c r="D39">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E39">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F39">
-        <v>4.028181414474788</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G39">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1297,19 +1297,19 @@
         <v>3.800000000000002</v>
       </c>
       <c r="C40">
-        <v>8.008424188868625</v>
+        <v>8.29397656443091</v>
       </c>
       <c r="D40">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E40">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F40">
-        <v>4.028181414474788</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G40">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1320,19 +1320,19 @@
         <v>3.900000000000002</v>
       </c>
       <c r="C41">
-        <v>7.956395094992995</v>
+        <v>8.249663649731749</v>
       </c>
       <c r="D41">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E41">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F41">
-        <v>4.028181414474791</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G41">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1343,19 +1343,19 @@
         <v>4.000000000000002</v>
       </c>
       <c r="C42">
-        <v>7.904366001117364</v>
+        <v>8.205350735032589</v>
       </c>
       <c r="D42">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E42">
-        <v>477.8065747990699</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F42">
-        <v>4.028181414474791</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G42">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1366,19 +1366,19 @@
         <v>4.100000000000001</v>
       </c>
       <c r="C43">
-        <v>7.852336907241733</v>
+        <v>8.16103782033343</v>
       </c>
       <c r="D43">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E43">
-        <v>477.8065747990699</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F43">
-        <v>4.028181414474791</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G43">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1389,19 +1389,19 @@
         <v>4.200000000000001</v>
       </c>
       <c r="C44">
-        <v>7.800307813366102</v>
+        <v>8.116724905634269</v>
       </c>
       <c r="D44">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E44">
-        <v>477.8065747990698</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F44">
-        <v>4.028181414474794</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G44">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1412,19 +1412,19 @@
         <v>4.300000000000001</v>
       </c>
       <c r="C45">
-        <v>7.74827871949047</v>
+        <v>8.072411990935111</v>
       </c>
       <c r="D45">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E45">
-        <v>477.8065747990698</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F45">
-        <v>4.028181414474794</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G45">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1435,19 +1435,19 @@
         <v>4.4</v>
       </c>
       <c r="C46">
-        <v>7.696249625614839</v>
+        <v>8.02809907623595</v>
       </c>
       <c r="D46">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E46">
-        <v>477.8065747990698</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F46">
-        <v>4.028181414474794</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G46">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1458,19 +1458,19 @@
         <v>4.5</v>
       </c>
       <c r="C47">
-        <v>7.644220531739207</v>
+        <v>7.98378616153679</v>
       </c>
       <c r="D47">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E47">
-        <v>477.8065747990698</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F47">
-        <v>4.028181414474794</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G47">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1481,19 +1481,19 @@
         <v>4.6</v>
       </c>
       <c r="C48">
-        <v>7.592191437863576</v>
+        <v>7.93947324683763</v>
       </c>
       <c r="D48">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E48">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F48">
-        <v>4.028181414474799</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G48">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1504,19 +1504,19 @@
         <v>4.699999999999999</v>
       </c>
       <c r="C49">
-        <v>7.540162343987945</v>
+        <v>7.89516033213847</v>
       </c>
       <c r="D49">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E49">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F49">
-        <v>4.0281814144748</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G49">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1527,19 +1527,19 @@
         <v>4.799999999999999</v>
       </c>
       <c r="C50">
-        <v>7.488133250112313</v>
+        <v>7.850847417439311</v>
       </c>
       <c r="D50">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E50">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F50">
-        <v>4.028181414474799</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G50">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>4.899999999999999</v>
       </c>
       <c r="C51">
-        <v>7.436104156236683</v>
+        <v>7.80653450274015</v>
       </c>
       <c r="D51">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E51">
-        <v>477.8065747990697</v>
+        <v>457.5287977924555</v>
       </c>
       <c r="F51">
-        <v>4.0281814144748</v>
+        <v>99.74630167052918</v>
       </c>
       <c r="G51">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1573,19 +1573,19 @@
         <v>4.999999999999998</v>
       </c>
       <c r="C52">
-        <v>7.384075062361052</v>
+        <v>7.76222158804099</v>
       </c>
       <c r="D52">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E52">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F52">
-        <v>4.028181414474799</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G52">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1596,19 +1596,19 @@
         <v>5.099999999999998</v>
       </c>
       <c r="C53">
-        <v>7.33204596848542</v>
+        <v>7.717908673341831</v>
       </c>
       <c r="D53">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E53">
-        <v>477.8065747990697</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F53">
-        <v>4.0281814144748</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G53">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1619,19 +1619,19 @@
         <v>5.199999999999998</v>
       </c>
       <c r="C54">
-        <v>7.280016874609789</v>
+        <v>7.67359575864267</v>
       </c>
       <c r="D54">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E54">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F54">
-        <v>4.0281814144748</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G54">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1642,19 +1642,19 @@
         <v>5.299999999999997</v>
       </c>
       <c r="C55">
-        <v>7.227987780734158</v>
+        <v>7.629282843943511</v>
       </c>
       <c r="D55">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E55">
-        <v>477.8065747990696</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F55">
-        <v>4.028181414474804</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G55">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1665,19 +1665,19 @@
         <v>5.399999999999997</v>
       </c>
       <c r="C56">
-        <v>7.175958686858526</v>
+        <v>7.584969929244351</v>
       </c>
       <c r="D56">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E56">
-        <v>477.8065747990697</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F56">
-        <v>4.0281814144748</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G56">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1688,19 +1688,19 @@
         <v>5.499999999999996</v>
       </c>
       <c r="C57">
-        <v>7.123929592982895</v>
+        <v>7.540657014545191</v>
       </c>
       <c r="D57">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E57">
-        <v>477.8065747990696</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F57">
-        <v>4.028181414474804</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G57">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1711,19 +1711,19 @@
         <v>5.599999999999996</v>
       </c>
       <c r="C58">
-        <v>7.071900499107263</v>
+        <v>7.496344099846031</v>
       </c>
       <c r="D58">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E58">
-        <v>477.8065747990696</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F58">
-        <v>4.028181414474804</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G58">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1734,19 +1734,19 @@
         <v>5.699999999999996</v>
       </c>
       <c r="C59">
-        <v>7.019871405231632</v>
+        <v>7.452031185146871</v>
       </c>
       <c r="D59">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E59">
-        <v>477.8065747990696</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F59">
-        <v>4.028181414474804</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G59">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1757,19 +1757,19 @@
         <v>5.799999999999995</v>
       </c>
       <c r="C60">
-        <v>6.967842311356002</v>
+        <v>7.407718270447711</v>
       </c>
       <c r="D60">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E60">
-        <v>477.8065747990696</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F60">
-        <v>4.028181414474804</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G60">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1780,19 +1780,19 @@
         <v>5.899999999999995</v>
       </c>
       <c r="C61">
-        <v>6.91581321748037</v>
+        <v>7.363405355748551</v>
       </c>
       <c r="D61">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E61">
-        <v>477.8065747990694</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F61">
-        <v>4.028181414474805</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G61">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1803,19 +1803,19 @@
         <v>5.999999999999995</v>
       </c>
       <c r="C62">
-        <v>6.863784123604739</v>
+        <v>7.319092441049391</v>
       </c>
       <c r="D62">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E62">
-        <v>477.8065747990694</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F62">
-        <v>4.028181414474805</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G62">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1826,19 +1826,19 @@
         <v>6.099999999999994</v>
       </c>
       <c r="C63">
-        <v>6.811755029729108</v>
+        <v>7.274779526350232</v>
       </c>
       <c r="D63">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E63">
-        <v>477.8065747990694</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F63">
-        <v>4.028181414474808</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G63">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1849,19 +1849,19 @@
         <v>6.199999999999994</v>
       </c>
       <c r="C64">
-        <v>6.759725935853476</v>
+        <v>7.230466611651072</v>
       </c>
       <c r="D64">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E64">
-        <v>477.8065747990694</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F64">
-        <v>4.028181414474805</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G64">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1872,19 +1872,19 @@
         <v>6.299999999999994</v>
       </c>
       <c r="C65">
-        <v>6.707696841977845</v>
+        <v>7.186153696951911</v>
       </c>
       <c r="D65">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E65">
-        <v>477.8065747990693</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F65">
-        <v>4.028181414474813</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G65">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1895,19 +1895,19 @@
         <v>6.399999999999993</v>
       </c>
       <c r="C66">
-        <v>6.655667748102214</v>
+        <v>7.141840782252752</v>
       </c>
       <c r="D66">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E66">
-        <v>477.8065747990693</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F66">
-        <v>4.028181414474813</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G66">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1918,19 +1918,19 @@
         <v>6.499999999999993</v>
       </c>
       <c r="C67">
-        <v>6.603638654226582</v>
+        <v>7.097527867553592</v>
       </c>
       <c r="D67">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E67">
-        <v>477.8065747990693</v>
+        <v>457.5287977924554</v>
       </c>
       <c r="F67">
-        <v>4.028181414474813</v>
+        <v>99.74630167052925</v>
       </c>
       <c r="G67">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1941,19 +1941,19 @@
         <v>6.599999999999993</v>
       </c>
       <c r="C68">
-        <v>6.551609560350951</v>
+        <v>7.053214952854431</v>
       </c>
       <c r="D68">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E68">
-        <v>477.8065747990693</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F68">
-        <v>4.028181414474813</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G68">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1964,19 +1964,19 @@
         <v>6.699999999999992</v>
       </c>
       <c r="C69">
-        <v>6.49958046647532</v>
+        <v>7.008902038155272</v>
       </c>
       <c r="D69">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E69">
-        <v>477.8065747990693</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F69">
-        <v>4.028181414474818</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G69">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1987,19 +1987,19 @@
         <v>6.799999999999992</v>
       </c>
       <c r="C70">
-        <v>6.447551372599689</v>
+        <v>6.964589123456112</v>
       </c>
       <c r="D70">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E70">
-        <v>477.8065747990693</v>
+        <v>457.5287977924553</v>
       </c>
       <c r="F70">
-        <v>4.028181414474818</v>
+        <v>99.74630167052926</v>
       </c>
       <c r="G70">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2010,19 +2010,19 @@
         <v>6.899999999999991</v>
       </c>
       <c r="C71">
-        <v>6.395522278724058</v>
+        <v>6.920276208756952</v>
       </c>
       <c r="D71">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E71">
-        <v>477.8065747990693</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F71">
-        <v>4.028181414474818</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G71">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2033,19 +2033,19 @@
         <v>6.999999999999991</v>
       </c>
       <c r="C72">
-        <v>6.343493184848426</v>
+        <v>6.875963294057792</v>
       </c>
       <c r="D72">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E72">
-        <v>477.8065747990692</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F72">
-        <v>4.028181414474819</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G72">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2056,19 +2056,19 @@
         <v>7.099999999999991</v>
       </c>
       <c r="C73">
-        <v>6.291464090972795</v>
+        <v>6.831650379358632</v>
       </c>
       <c r="D73">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E73">
-        <v>477.8065747990692</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F73">
-        <v>4.028181414474819</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G73">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2079,19 +2079,19 @@
         <v>7.19999999999999</v>
       </c>
       <c r="C74">
-        <v>6.239434997097164</v>
+        <v>6.787337464659473</v>
       </c>
       <c r="D74">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E74">
-        <v>477.8065747990691</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F74">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G74">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2102,19 +2102,19 @@
         <v>7.29999999999999</v>
       </c>
       <c r="C75">
-        <v>6.187405903221532</v>
+        <v>6.743024549960312</v>
       </c>
       <c r="D75">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E75">
-        <v>477.8065747990691</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F75">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G75">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2125,19 +2125,19 @@
         <v>7.39999999999999</v>
       </c>
       <c r="C76">
-        <v>6.135376809345901</v>
+        <v>6.698711635261152</v>
       </c>
       <c r="D76">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E76">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F76">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G76">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2148,19 +2148,19 @@
         <v>7.499999999999989</v>
       </c>
       <c r="C77">
-        <v>6.08334771547027</v>
+        <v>6.654398720561993</v>
       </c>
       <c r="D77">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E77">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F77">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G77">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2171,19 +2171,19 @@
         <v>7.599999999999989</v>
       </c>
       <c r="C78">
-        <v>6.031318621594639</v>
+        <v>6.610085805862832</v>
       </c>
       <c r="D78">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E78">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F78">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G78">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2194,19 +2194,19 @@
         <v>7.699999999999989</v>
       </c>
       <c r="C79">
-        <v>5.979289527719008</v>
+        <v>6.565772891163673</v>
       </c>
       <c r="D79">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E79">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F79">
-        <v>4.028181414474822</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G79">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2217,19 +2217,19 @@
         <v>7.799999999999988</v>
       </c>
       <c r="C80">
-        <v>5.927260433843376</v>
+        <v>6.521459976464513</v>
       </c>
       <c r="D80">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E80">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F80">
-        <v>4.028181414474827</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G80">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2240,19 +2240,19 @@
         <v>7.899999999999988</v>
       </c>
       <c r="C81">
-        <v>5.875231339967745</v>
+        <v>6.477147061765353</v>
       </c>
       <c r="D81">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E81">
-        <v>477.806574799069</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F81">
-        <v>4.028181414474827</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G81">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2263,19 +2263,19 @@
         <v>7.999999999999988</v>
       </c>
       <c r="C82">
-        <v>5.823202246092114</v>
+        <v>6.432834147066193</v>
       </c>
       <c r="D82">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E82">
-        <v>477.8065747990689</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F82">
-        <v>4.02818141447483</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G82">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2286,19 +2286,19 @@
         <v>8.099999999999987</v>
       </c>
       <c r="C83">
-        <v>5.771173152216482</v>
+        <v>6.388521232367033</v>
       </c>
       <c r="D83">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E83">
-        <v>477.8065747990689</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F83">
-        <v>4.02818141447483</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G83">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2309,19 +2309,19 @@
         <v>8.199999999999987</v>
       </c>
       <c r="C84">
-        <v>5.719144058340851</v>
+        <v>6.344208317667873</v>
       </c>
       <c r="D84">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E84">
-        <v>477.8065747990688</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F84">
-        <v>4.028181414474833</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G84">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2332,19 +2332,19 @@
         <v>8.299999999999986</v>
       </c>
       <c r="C85">
-        <v>5.66711496446522</v>
+        <v>6.299895402968713</v>
       </c>
       <c r="D85">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E85">
-        <v>477.8065747990688</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F85">
-        <v>4.028181414474833</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G85">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2355,19 +2355,19 @@
         <v>8.399999999999986</v>
       </c>
       <c r="C86">
-        <v>5.615085870589589</v>
+        <v>6.255582488269553</v>
       </c>
       <c r="D86">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E86">
-        <v>477.8065747990687</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F86">
-        <v>4.028181414474834</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G86">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2378,19 +2378,19 @@
         <v>8.499999999999986</v>
       </c>
       <c r="C87">
-        <v>5.563056776713958</v>
+        <v>6.211269573570394</v>
       </c>
       <c r="D87">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E87">
-        <v>477.8065747990687</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F87">
-        <v>4.028181414474834</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G87">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2401,19 +2401,19 @@
         <v>8.599999999999985</v>
       </c>
       <c r="C88">
-        <v>5.511027682838327</v>
+        <v>6.166956658871233</v>
       </c>
       <c r="D88">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E88">
-        <v>477.8065747990686</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F88">
-        <v>4.028181414474841</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G88">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2424,19 +2424,19 @@
         <v>8.699999999999985</v>
       </c>
       <c r="C89">
-        <v>5.458998588962695</v>
+        <v>6.122643744172073</v>
       </c>
       <c r="D89">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E89">
-        <v>477.8065747990687</v>
+        <v>457.5287977924552</v>
       </c>
       <c r="F89">
-        <v>4.028181414474834</v>
+        <v>99.74630167052932</v>
       </c>
       <c r="G89">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2447,19 +2447,19 @@
         <v>8.799999999999985</v>
       </c>
       <c r="C90">
-        <v>5.406969495087064</v>
+        <v>6.078330829472914</v>
       </c>
       <c r="D90">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E90">
-        <v>477.8065747990686</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F90">
-        <v>4.028181414474841</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G90">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2470,19 +2470,19 @@
         <v>8.899999999999984</v>
       </c>
       <c r="C91">
-        <v>5.354940401211432</v>
+        <v>6.034017914773754</v>
       </c>
       <c r="D91">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E91">
-        <v>477.8065747990686</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F91">
-        <v>4.028181414474841</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G91">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2493,19 +2493,19 @@
         <v>8.999999999999984</v>
       </c>
       <c r="C92">
-        <v>5.302911307335801</v>
+        <v>5.989705000074593</v>
       </c>
       <c r="D92">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E92">
-        <v>477.8065747990686</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F92">
-        <v>4.028181414474841</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G92">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2516,19 +2516,19 @@
         <v>9.099999999999984</v>
       </c>
       <c r="C93">
-        <v>5.25088221346017</v>
+        <v>5.945392085375434</v>
       </c>
       <c r="D93">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E93">
-        <v>477.8065747990685</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F93">
-        <v>4.028181414474846</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G93">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2539,19 +2539,19 @@
         <v>9.199999999999983</v>
       </c>
       <c r="C94">
-        <v>5.198853119584538</v>
+        <v>5.901079170676274</v>
       </c>
       <c r="D94">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E94">
-        <v>477.8065747990685</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F94">
-        <v>4.028181414474846</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G94">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2562,19 +2562,19 @@
         <v>9.299999999999983</v>
       </c>
       <c r="C95">
-        <v>5.146824025708908</v>
+        <v>5.856766255977114</v>
       </c>
       <c r="D95">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E95">
-        <v>477.8065747990685</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F95">
-        <v>4.028181414474846</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G95">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2585,19 +2585,19 @@
         <v>9.399999999999983</v>
       </c>
       <c r="C96">
-        <v>5.094794931833277</v>
+        <v>5.812453341277954</v>
       </c>
       <c r="D96">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E96">
-        <v>477.8065747990684</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F96">
-        <v>4.028181414474853</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G96">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2608,19 +2608,19 @@
         <v>9.499999999999982</v>
       </c>
       <c r="C97">
-        <v>5.042765837957645</v>
+        <v>5.768140426578794</v>
       </c>
       <c r="D97">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E97">
-        <v>477.8065747990683</v>
+        <v>457.5287977924551</v>
       </c>
       <c r="F97">
-        <v>4.028181414474853</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G97">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2631,19 +2631,19 @@
         <v>9.599999999999982</v>
       </c>
       <c r="C98">
-        <v>4.990736744082014</v>
+        <v>5.723827511879635</v>
       </c>
       <c r="D98">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E98">
-        <v>477.8065747990683</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F98">
-        <v>4.028181414474853</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G98">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2654,19 +2654,19 @@
         <v>9.699999999999982</v>
       </c>
       <c r="C99">
-        <v>4.938707650206383</v>
+        <v>5.679514597180474</v>
       </c>
       <c r="D99">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E99">
-        <v>477.8065747990682</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F99">
-        <v>4.028181414474857</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G99">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2677,19 +2677,19 @@
         <v>9.799999999999981</v>
       </c>
       <c r="C100">
-        <v>4.886678556330751</v>
+        <v>5.635201682481314</v>
       </c>
       <c r="D100">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E100">
-        <v>477.8065747990682</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F100">
-        <v>4.028181414474857</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G100">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2700,19 +2700,19 @@
         <v>9.899999999999981</v>
       </c>
       <c r="C101">
-        <v>4.83464946245512</v>
+        <v>5.590888767782155</v>
       </c>
       <c r="D101">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E101">
-        <v>477.8065747990682</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F101">
-        <v>4.028181414474857</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G101">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2723,19 +2723,19 @@
         <v>9.99999999999998</v>
       </c>
       <c r="C102">
-        <v>4.782620368579488</v>
+        <v>5.546575853082994</v>
       </c>
       <c r="D102">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E102">
-        <v>477.806574799068</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F102">
-        <v>4.028181414474863</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G102">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2746,19 +2746,19 @@
         <v>10.09999999999998</v>
       </c>
       <c r="C103">
-        <v>4.730591274703857</v>
+        <v>5.502262938383835</v>
       </c>
       <c r="D103">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E103">
-        <v>477.8065747990681</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F103">
-        <v>4.028181414474863</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G103">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2769,19 +2769,19 @@
         <v>10.19999999999998</v>
       </c>
       <c r="C104">
-        <v>4.678562180828227</v>
+        <v>5.457950023684675</v>
       </c>
       <c r="D104">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E104">
-        <v>477.806574799068</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F104">
-        <v>4.028181414474863</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G104">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2792,19 +2792,19 @@
         <v>10.29999999999998</v>
       </c>
       <c r="C105">
-        <v>4.626533086952595</v>
+        <v>5.413637108985514</v>
       </c>
       <c r="D105">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E105">
-        <v>477.806574799068</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F105">
-        <v>4.028181414474869</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G105">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2815,19 +2815,19 @@
         <v>10.39999999999998</v>
       </c>
       <c r="C106">
-        <v>4.574503993076964</v>
+        <v>5.369324194286355</v>
       </c>
       <c r="D106">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E106">
-        <v>477.8065747990679</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F106">
-        <v>4.028181414474869</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G106">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2838,19 +2838,19 @@
         <v>10.49999999999998</v>
       </c>
       <c r="C107">
-        <v>4.522474899201333</v>
+        <v>5.325011279587195</v>
       </c>
       <c r="D107">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E107">
-        <v>477.8065747990678</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F107">
-        <v>4.028181414474871</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G107">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2861,19 +2861,19 @@
         <v>10.59999999999998</v>
       </c>
       <c r="C108">
-        <v>4.470445805325701</v>
+        <v>5.280698364888035</v>
       </c>
       <c r="D108">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E108">
-        <v>477.8065747990678</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F108">
-        <v>4.028181414474873</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G108">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2884,19 +2884,19 @@
         <v>10.69999999999998</v>
       </c>
       <c r="C109">
-        <v>4.41841671145007</v>
+        <v>5.236385450188875</v>
       </c>
       <c r="D109">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E109">
-        <v>477.8065747990678</v>
+        <v>457.5287977924549</v>
       </c>
       <c r="F109">
-        <v>4.028181414474873</v>
+        <v>99.74630167052952</v>
       </c>
       <c r="G109">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2907,19 +2907,19 @@
         <v>10.79999999999998</v>
       </c>
       <c r="C110">
-        <v>4.366387617574439</v>
+        <v>5.192072535489715</v>
       </c>
       <c r="D110">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E110">
-        <v>477.8065747990676</v>
+        <v>457.528797792455</v>
       </c>
       <c r="F110">
-        <v>4.028181414474879</v>
+        <v>99.74630167052943</v>
       </c>
       <c r="G110">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2930,19 +2930,19 @@
         <v>10.89999999999998</v>
       </c>
       <c r="C111">
-        <v>4.314358523698808</v>
+        <v>5.147759620790556</v>
       </c>
       <c r="D111">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E111">
-        <v>477.8065747990676</v>
+        <v>457.5287977924549</v>
       </c>
       <c r="F111">
-        <v>4.028181414474879</v>
+        <v>99.74630167052952</v>
       </c>
       <c r="G111">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2953,19 +2953,19 @@
         <v>10.99999999999998</v>
       </c>
       <c r="C112">
-        <v>4.262329429823177</v>
+        <v>5.103446706091395</v>
       </c>
       <c r="D112">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E112">
-        <v>477.8065747990676</v>
+        <v>457.5287977924549</v>
       </c>
       <c r="F112">
-        <v>4.028181414474881</v>
+        <v>99.74630167052952</v>
       </c>
       <c r="G112">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2976,19 +2976,19 @@
         <v>11.09999999999998</v>
       </c>
       <c r="C113">
-        <v>4.210300335947547</v>
+        <v>5.059133791392235</v>
       </c>
       <c r="D113">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E113">
-        <v>477.8065747990675</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F113">
-        <v>4.028181414474883</v>
+        <v>99.74630167052953</v>
       </c>
       <c r="G113">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2999,19 +2999,19 @@
         <v>11.19999999999998</v>
       </c>
       <c r="C114">
-        <v>4.158271242071916</v>
+        <v>5.014820876693076</v>
       </c>
       <c r="D114">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E114">
-        <v>477.8065747990674</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F114">
-        <v>4.028181414474884</v>
+        <v>99.74630167052953</v>
       </c>
       <c r="G114">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3022,19 +3022,19 @@
         <v>11.29999999999998</v>
       </c>
       <c r="C115">
-        <v>4.106242148196285</v>
+        <v>4.970507961993916</v>
       </c>
       <c r="D115">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E115">
-        <v>477.8065747990674</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F115">
-        <v>4.028181414474889</v>
+        <v>99.74630167052953</v>
       </c>
       <c r="G115">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3045,19 +3045,19 @@
         <v>11.39999999999998</v>
       </c>
       <c r="C116">
-        <v>4.054213054320654</v>
+        <v>4.926195047294756</v>
       </c>
       <c r="D116">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E116">
-        <v>477.8065747990673</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F116">
-        <v>4.028181414474892</v>
+        <v>99.74630167052953</v>
       </c>
       <c r="G116">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3068,19 +3068,19 @@
         <v>11.49999999999998</v>
       </c>
       <c r="C117">
-        <v>4.002183960445024</v>
+        <v>4.881882132595596</v>
       </c>
       <c r="D117">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E117">
-        <v>477.8065747990672</v>
+        <v>457.5287977924549</v>
       </c>
       <c r="F117">
-        <v>4.028181414474897</v>
+        <v>99.74630167052952</v>
       </c>
       <c r="G117">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3091,19 +3091,19 @@
         <v>11.59999999999997</v>
       </c>
       <c r="C118">
-        <v>3.950154866569393</v>
+        <v>4.837569217896436</v>
       </c>
       <c r="D118">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E118">
-        <v>477.8065747990672</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F118">
-        <v>4.028181414474897</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G118">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3114,19 +3114,19 @@
         <v>11.69999999999997</v>
       </c>
       <c r="C119">
-        <v>3.898125772693762</v>
+        <v>4.793256303197276</v>
       </c>
       <c r="D119">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E119">
-        <v>477.8065747990671</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F119">
-        <v>4.028181414474898</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G119">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3137,19 +3137,19 @@
         <v>11.79999999999997</v>
       </c>
       <c r="C120">
-        <v>3.846096678818132</v>
+        <v>4.748943388498116</v>
       </c>
       <c r="D120">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E120">
-        <v>477.8065747990671</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F120">
-        <v>4.028181414474902</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G120">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3160,19 +3160,19 @@
         <v>11.89999999999997</v>
       </c>
       <c r="C121">
-        <v>3.794067584942501</v>
+        <v>4.704630473798956</v>
       </c>
       <c r="D121">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E121">
-        <v>477.8065747990669</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F121">
-        <v>4.028181414474905</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G121">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3183,19 +3183,19 @@
         <v>11.99999999999997</v>
       </c>
       <c r="C122">
-        <v>3.74203849106687</v>
+        <v>4.660317559099796</v>
       </c>
       <c r="D122">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E122">
-        <v>477.8065747990668</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F122">
-        <v>4.02818141447491</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G122">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3206,19 +3206,19 @@
         <v>12.09999999999997</v>
       </c>
       <c r="C123">
-        <v>3.690009397191239</v>
+        <v>4.616004644400636</v>
       </c>
       <c r="D123">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E123">
-        <v>477.8065747990668</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F123">
-        <v>4.02818141447491</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G123">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3229,19 +3229,19 @@
         <v>12.19999999999997</v>
       </c>
       <c r="C124">
-        <v>3.637980303315608</v>
+        <v>4.571691729701477</v>
       </c>
       <c r="D124">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E124">
-        <v>477.8065747990667</v>
+        <v>457.5287977924547</v>
       </c>
       <c r="F124">
-        <v>4.028181414474915</v>
+        <v>99.74630167052968</v>
       </c>
       <c r="G124">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3252,19 +3252,19 @@
         <v>12.29999999999997</v>
       </c>
       <c r="C125">
-        <v>3.585951209439978</v>
+        <v>4.527378815002317</v>
       </c>
       <c r="D125">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E125">
-        <v>477.8065747990667</v>
+        <v>457.5287977924548</v>
       </c>
       <c r="F125">
-        <v>4.028181414474917</v>
+        <v>99.74630167052966</v>
       </c>
       <c r="G125">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3275,19 +3275,19 @@
         <v>12.39999999999997</v>
       </c>
       <c r="C126">
-        <v>3.533922115564347</v>
+        <v>4.483065900303156</v>
       </c>
       <c r="D126">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E126">
-        <v>477.8065747990665</v>
+        <v>457.5287977924547</v>
       </c>
       <c r="F126">
-        <v>4.028181414474919</v>
+        <v>99.74630167052968</v>
       </c>
       <c r="G126">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3298,19 +3298,19 @@
         <v>12.49999999999997</v>
       </c>
       <c r="C127">
-        <v>3.481893021688716</v>
+        <v>4.438752985603997</v>
       </c>
       <c r="D127">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E127">
-        <v>477.8065747990665</v>
+        <v>457.5287977924547</v>
       </c>
       <c r="F127">
-        <v>4.028181414474923</v>
+        <v>99.74630167052968</v>
       </c>
       <c r="G127">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3321,19 +3321,19 @@
         <v>12.59999999999997</v>
       </c>
       <c r="C128">
-        <v>3.429863927813086</v>
+        <v>4.394440070904836</v>
       </c>
       <c r="D128">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E128">
-        <v>477.8065747990664</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F128">
-        <v>4.02818141447493</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G128">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3344,19 +3344,19 @@
         <v>12.69999999999997</v>
       </c>
       <c r="C129">
-        <v>3.377834833937455</v>
+        <v>4.350127156205676</v>
       </c>
       <c r="D129">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E129">
-        <v>477.8065747990662</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F129">
-        <v>4.028181414474934</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G129">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3367,19 +3367,19 @@
         <v>12.79999999999997</v>
       </c>
       <c r="C130">
-        <v>3.325805740061824</v>
+        <v>4.305814241506515</v>
       </c>
       <c r="D130">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E130">
-        <v>477.8065747990662</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F130">
-        <v>4.028181414474934</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G130">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3390,19 +3390,19 @@
         <v>12.89999999999997</v>
       </c>
       <c r="C131">
-        <v>3.273776646186193</v>
+        <v>4.261501326807355</v>
       </c>
       <c r="D131">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E131">
-        <v>477.806574799066</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F131">
-        <v>4.028181414474941</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G131">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3413,19 +3413,19 @@
         <v>12.99999999999997</v>
       </c>
       <c r="C132">
-        <v>3.221747552310562</v>
+        <v>4.217188412108195</v>
       </c>
       <c r="D132">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E132">
-        <v>477.806574799066</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F132">
-        <v>4.028181414474941</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G132">
-        <v>93.55461219592134</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3436,19 +3436,19 @@
         <v>13.09999999999997</v>
       </c>
       <c r="C133">
-        <v>3.169718458434932</v>
+        <v>4.172875497409034</v>
       </c>
       <c r="D133">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E133">
-        <v>477.8065747990658</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F133">
-        <v>4.028181414474947</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G133">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3459,19 +3459,19 @@
         <v>13.19999999999997</v>
       </c>
       <c r="C134">
-        <v>3.117689364559301</v>
+        <v>4.128562582709874</v>
       </c>
       <c r="D134">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E134">
-        <v>477.8065747990657</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F134">
-        <v>4.02818141447495</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G134">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3482,19 +3482,19 @@
         <v>13.29999999999997</v>
       </c>
       <c r="C135">
-        <v>3.06566027068367</v>
+        <v>4.084249668010713</v>
       </c>
       <c r="D135">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E135">
-        <v>477.8065747990656</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F135">
-        <v>4.028181414474954</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G135">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3505,19 +3505,19 @@
         <v>13.39999999999997</v>
       </c>
       <c r="C136">
-        <v>3.013631176808039</v>
+        <v>4.039936753311553</v>
       </c>
       <c r="D136">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E136">
-        <v>477.8065747990655</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F136">
-        <v>4.028181414474955</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G136">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3528,19 +3528,19 @@
         <v>13.49999999999997</v>
       </c>
       <c r="C137">
-        <v>2.961602082932409</v>
+        <v>3.995623838612393</v>
       </c>
       <c r="D137">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E137">
-        <v>477.8065747990653</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F137">
-        <v>4.028181414474965</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G137">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3551,19 +3551,19 @@
         <v>13.59999999999997</v>
       </c>
       <c r="C138">
-        <v>2.909572989056778</v>
+        <v>3.951310923913232</v>
       </c>
       <c r="D138">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E138">
-        <v>477.8065747990652</v>
+        <v>457.5287977924546</v>
       </c>
       <c r="F138">
-        <v>4.028181414474971</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G138">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3574,19 +3574,19 @@
         <v>13.69999999999997</v>
       </c>
       <c r="C139">
-        <v>2.857543895181147</v>
+        <v>3.906998009214072</v>
       </c>
       <c r="D139">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E139">
-        <v>477.8065747990651</v>
+        <v>457.5287977924544</v>
       </c>
       <c r="F139">
-        <v>4.028181414474976</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G139">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3597,19 +3597,19 @@
         <v>13.79999999999997</v>
       </c>
       <c r="C140">
-        <v>2.805514801305516</v>
+        <v>3.862685094514911</v>
       </c>
       <c r="D140">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E140">
-        <v>477.8065747990649</v>
+        <v>457.5287977924545</v>
       </c>
       <c r="F140">
-        <v>4.02818141447498</v>
+        <v>99.74630167052976</v>
       </c>
       <c r="G140">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3620,19 +3620,19 @@
         <v>13.89999999999997</v>
       </c>
       <c r="C141">
-        <v>2.753485707429886</v>
+        <v>3.818372179815751</v>
       </c>
       <c r="D141">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E141">
-        <v>477.8065747990649</v>
+        <v>457.5287977924544</v>
       </c>
       <c r="F141">
-        <v>4.028181414474982</v>
+        <v>99.74630167052975</v>
       </c>
       <c r="G141">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3643,19 +3643,19 @@
         <v>13.99999999999997</v>
       </c>
       <c r="C142">
-        <v>2.701456613554255</v>
+        <v>3.774059265116591</v>
       </c>
       <c r="D142">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E142">
-        <v>477.8065747990647</v>
+        <v>457.5287977924544</v>
       </c>
       <c r="F142">
-        <v>4.02818141447499</v>
+        <v>99.74630167052982</v>
       </c>
       <c r="G142">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3666,19 +3666,19 @@
         <v>14.09999999999997</v>
       </c>
       <c r="C143">
-        <v>2.649427519678624</v>
+        <v>3.72974635041743</v>
       </c>
       <c r="D143">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E143">
-        <v>477.8065747990645</v>
+        <v>457.5287977924544</v>
       </c>
       <c r="F143">
-        <v>4.028181414474995</v>
+        <v>99.74630167052982</v>
       </c>
       <c r="G143">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3689,19 +3689,19 @@
         <v>14.19999999999997</v>
       </c>
       <c r="C144">
-        <v>2.597398425802993</v>
+        <v>3.68543343571827</v>
       </c>
       <c r="D144">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E144">
-        <v>477.8065747990644</v>
+        <v>457.5287977924543</v>
       </c>
       <c r="F144">
-        <v>4.028181414475</v>
+        <v>99.74630167052986</v>
       </c>
       <c r="G144">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3712,19 +3712,19 @@
         <v>14.29999999999997</v>
       </c>
       <c r="C145">
-        <v>2.545369331927362</v>
+        <v>3.64112052101911</v>
       </c>
       <c r="D145">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E145">
-        <v>477.8065747990642</v>
+        <v>457.5287977924543</v>
       </c>
       <c r="F145">
-        <v>4.028181414475009</v>
+        <v>99.74630167052986</v>
       </c>
       <c r="G145">
-        <v>93.55461219592128</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3735,19 +3735,19 @@
         <v>14.39999999999996</v>
       </c>
       <c r="C146">
-        <v>2.493340238051732</v>
+        <v>3.596807606319949</v>
       </c>
       <c r="D146">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E146">
-        <v>477.806574799064</v>
+        <v>457.5287977924543</v>
       </c>
       <c r="F146">
-        <v>4.02818141447502</v>
+        <v>99.74630167052986</v>
       </c>
       <c r="G146">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3758,19 +3758,19 @@
         <v>14.49999999999996</v>
       </c>
       <c r="C147">
-        <v>2.441311144176101</v>
+        <v>3.552494691620788</v>
       </c>
       <c r="D147">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E147">
-        <v>477.8065747990638</v>
+        <v>457.5287977924543</v>
       </c>
       <c r="F147">
-        <v>4.028181414475026</v>
+        <v>99.74630167052986</v>
       </c>
       <c r="G147">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3781,19 +3781,19 @@
         <v>14.59999999999996</v>
       </c>
       <c r="C148">
-        <v>2.38928205030047</v>
+        <v>3.508181776921628</v>
       </c>
       <c r="D148">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E148">
-        <v>477.8065747990636</v>
+        <v>457.5287977924542</v>
       </c>
       <c r="F148">
-        <v>4.028181414475031</v>
+        <v>99.74630167052992</v>
       </c>
       <c r="G148">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3804,19 +3804,19 @@
         <v>14.69999999999996</v>
       </c>
       <c r="C149">
-        <v>2.33725295642484</v>
+        <v>3.463868862222468</v>
       </c>
       <c r="D149">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E149">
-        <v>477.8065747990635</v>
+        <v>457.5287977924542</v>
       </c>
       <c r="F149">
-        <v>4.028181414475045</v>
+        <v>99.74630167052992</v>
       </c>
       <c r="G149">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3827,19 +3827,19 @@
         <v>14.79999999999996</v>
       </c>
       <c r="C150">
-        <v>2.285223862549209</v>
+        <v>3.419555947523307</v>
       </c>
       <c r="D150">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E150">
-        <v>477.8065747990632</v>
+        <v>457.5287977924542</v>
       </c>
       <c r="F150">
-        <v>4.028181414475049</v>
+        <v>99.74630167052992</v>
       </c>
       <c r="G150">
-        <v>93.55461219592132</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3850,19 +3850,19 @@
         <v>14.89999999999996</v>
       </c>
       <c r="C151">
-        <v>2.233194768673578</v>
+        <v>3.375243032824147</v>
       </c>
       <c r="D151">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E151">
-        <v>477.8065747990631</v>
+        <v>457.5287977924542</v>
       </c>
       <c r="F151">
-        <v>4.028181414475058</v>
+        <v>99.74630167052999</v>
       </c>
       <c r="G151">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3873,19 +3873,19 @@
         <v>14.99999999999996</v>
       </c>
       <c r="C152">
-        <v>2.181165674797947</v>
+        <v>3.330930118124987</v>
       </c>
       <c r="D152">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E152">
-        <v>477.8065747990628</v>
+        <v>457.5287977924542</v>
       </c>
       <c r="F152">
-        <v>4.028181414475068</v>
+        <v>99.74630167052999</v>
       </c>
       <c r="G152">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3896,19 +3896,19 @@
         <v>15.09999999999996</v>
       </c>
       <c r="C153">
-        <v>2.129136580922316</v>
+        <v>3.286617203425826</v>
       </c>
       <c r="D153">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E153">
-        <v>477.8065747990625</v>
+        <v>457.5287977924541</v>
       </c>
       <c r="F153">
-        <v>4.028181414475078</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G153">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3919,19 +3919,19 @@
         <v>15.19999999999996</v>
       </c>
       <c r="C154">
-        <v>2.077107487046685</v>
+        <v>3.242304288726666</v>
       </c>
       <c r="D154">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E154">
-        <v>477.8065747990623</v>
+        <v>457.5287977924541</v>
       </c>
       <c r="F154">
-        <v>4.028181414475087</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G154">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3942,19 +3942,19 @@
         <v>15.29999999999996</v>
       </c>
       <c r="C155">
-        <v>2.025078393171054</v>
+        <v>3.197991374027505</v>
       </c>
       <c r="D155">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E155">
-        <v>477.8065747990621</v>
+        <v>457.528797792454</v>
       </c>
       <c r="F155">
-        <v>4.028181414475092</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G155">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3965,19 +3965,19 @@
         <v>15.39999999999996</v>
       </c>
       <c r="C156">
-        <v>1.973049299295423</v>
+        <v>3.153678459328345</v>
       </c>
       <c r="D156">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E156">
-        <v>477.8065747990618</v>
+        <v>457.528797792454</v>
       </c>
       <c r="F156">
-        <v>4.028181414475104</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G156">
-        <v>93.55461219592132</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3988,19 +3988,19 @@
         <v>15.49999999999996</v>
       </c>
       <c r="C157">
-        <v>1.921020205419792</v>
+        <v>3.109365544629184</v>
       </c>
       <c r="D157">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E157">
-        <v>477.8065747990614</v>
+        <v>457.528797792454</v>
       </c>
       <c r="F157">
-        <v>4.028181414475124</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G157">
-        <v>93.55461219592139</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4011,19 +4011,19 @@
         <v>15.59999999999996</v>
       </c>
       <c r="C158">
-        <v>1.868991111544161</v>
+        <v>3.065052629930024</v>
       </c>
       <c r="D158">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E158">
-        <v>477.8065747990611</v>
+        <v>457.528797792454</v>
       </c>
       <c r="F158">
-        <v>4.028181414475132</v>
+        <v>99.74630167053006</v>
       </c>
       <c r="G158">
-        <v>93.55461219592141</v>
+        <v>67.19992462034524</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4034,19 +4034,19 @@
         <v>15.69999999999996</v>
       </c>
       <c r="C159">
-        <v>1.81696201766853</v>
+        <v>3.020739715230864</v>
       </c>
       <c r="D159">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E159">
-        <v>477.8065747990608</v>
+        <v>457.5287977924539</v>
       </c>
       <c r="F159">
-        <v>4.028181414475144</v>
+        <v>99.74630167053022</v>
       </c>
       <c r="G159">
-        <v>93.55461219592141</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4057,19 +4057,19 @@
         <v>15.79999999999996</v>
       </c>
       <c r="C160">
-        <v>1.764932923792899</v>
+        <v>2.976426800531703</v>
       </c>
       <c r="D160">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E160">
-        <v>477.8065747990605</v>
+        <v>457.5287977924539</v>
       </c>
       <c r="F160">
-        <v>4.028181414475158</v>
+        <v>99.74630167053022</v>
       </c>
       <c r="G160">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4080,19 +4080,19 @@
         <v>15.89999999999996</v>
       </c>
       <c r="C161">
-        <v>1.712903829917268</v>
+        <v>2.932113885832543</v>
       </c>
       <c r="D161">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E161">
-        <v>477.8065747990601</v>
+        <v>457.5287977924538</v>
       </c>
       <c r="F161">
-        <v>4.028181414475171</v>
+        <v>99.74630167053022</v>
       </c>
       <c r="G161">
-        <v>93.55461219592138</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4103,19 +4103,19 @@
         <v>15.99999999999996</v>
       </c>
       <c r="C162">
-        <v>1.660874736041637</v>
+        <v>2.887800971133383</v>
       </c>
       <c r="D162">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E162">
-        <v>477.8065747990597</v>
+        <v>457.5287977924538</v>
       </c>
       <c r="F162">
-        <v>4.028181414475187</v>
+        <v>99.74630167053022</v>
       </c>
       <c r="G162">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4126,19 +4126,19 @@
         <v>16.09999999999996</v>
       </c>
       <c r="C163">
-        <v>1.608845642166006</v>
+        <v>2.843488056434222</v>
       </c>
       <c r="D163">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E163">
-        <v>477.8065747990593</v>
+        <v>457.5287977924538</v>
       </c>
       <c r="F163">
-        <v>4.028181414475206</v>
+        <v>99.74630167053029</v>
       </c>
       <c r="G163">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4149,19 +4149,19 @@
         <v>16.19999999999996</v>
       </c>
       <c r="C164">
-        <v>1.556816548290374</v>
+        <v>2.799175141735061</v>
       </c>
       <c r="D164">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E164">
-        <v>477.8065747990589</v>
+        <v>457.5287977924537</v>
       </c>
       <c r="F164">
-        <v>4.02818141447522</v>
+        <v>99.74630167053036</v>
       </c>
       <c r="G164">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4172,19 +4172,19 @@
         <v>16.29999999999996</v>
       </c>
       <c r="C165">
-        <v>1.504787454414742</v>
+        <v>2.7548622270359</v>
       </c>
       <c r="D165">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E165">
-        <v>477.8065747990584</v>
+        <v>457.5287977924537</v>
       </c>
       <c r="F165">
-        <v>4.02818141447524</v>
+        <v>99.74630167053036</v>
       </c>
       <c r="G165">
-        <v>93.55461219592139</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4195,19 +4195,19 @@
         <v>16.39999999999996</v>
       </c>
       <c r="C166">
-        <v>1.452758360539111</v>
+        <v>2.710549312336739</v>
       </c>
       <c r="D166">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E166">
-        <v>477.8065747990579</v>
+        <v>457.5287977924536</v>
       </c>
       <c r="F166">
-        <v>4.028181414475259</v>
+        <v>99.74630167053036</v>
       </c>
       <c r="G166">
-        <v>93.55461219592141</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4218,19 +4218,19 @@
         <v>16.49999999999996</v>
       </c>
       <c r="C167">
-        <v>1.400729266663479</v>
+        <v>2.666236397637578</v>
       </c>
       <c r="D167">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E167">
-        <v>477.8065747990574</v>
+        <v>457.5287977924536</v>
       </c>
       <c r="F167">
-        <v>4.028181414475279</v>
+        <v>99.74630167053036</v>
       </c>
       <c r="G167">
-        <v>93.55461219592141</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4241,19 +4241,19 @@
         <v>16.59999999999997</v>
       </c>
       <c r="C168">
-        <v>1.348700172787847</v>
+        <v>2.621923482938417</v>
       </c>
       <c r="D168">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E168">
-        <v>477.8065747990568</v>
+        <v>457.5287977924536</v>
       </c>
       <c r="F168">
-        <v>4.028181414475304</v>
+        <v>99.74630167053036</v>
       </c>
       <c r="G168">
-        <v>93.55461219592141</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4264,19 +4264,19 @@
         <v>16.69999999999997</v>
       </c>
       <c r="C169">
-        <v>1.296671078912216</v>
+        <v>2.577610568239256</v>
       </c>
       <c r="D169">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E169">
-        <v>477.8065747990561</v>
+        <v>457.5287977924535</v>
       </c>
       <c r="F169">
-        <v>4.028181414475328</v>
+        <v>99.74630167053037</v>
       </c>
       <c r="G169">
-        <v>93.55461219592146</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4287,19 +4287,19 @@
         <v>16.79999999999997</v>
       </c>
       <c r="C170">
-        <v>1.244641985036584</v>
+        <v>2.533297653540096</v>
       </c>
       <c r="D170">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E170">
-        <v>477.8065747990555</v>
+        <v>457.5287977924535</v>
       </c>
       <c r="F170">
-        <v>4.028181414475354</v>
+        <v>99.74630167053037</v>
       </c>
       <c r="G170">
-        <v>93.55461219592146</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4310,19 +4310,19 @@
         <v>16.89999999999997</v>
       </c>
       <c r="C171">
-        <v>1.192612891160952</v>
+        <v>2.488984738840935</v>
       </c>
       <c r="D171">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E171">
-        <v>477.8065747990547</v>
+        <v>457.5287977924535</v>
       </c>
       <c r="F171">
-        <v>4.028181414475388</v>
+        <v>99.74630167053037</v>
       </c>
       <c r="G171">
-        <v>93.55461219592146</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4333,19 +4333,19 @@
         <v>16.99999999999997</v>
       </c>
       <c r="C172">
-        <v>1.14058379728532</v>
+        <v>2.444671824141774</v>
       </c>
       <c r="D172">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E172">
-        <v>477.8065747990539</v>
+        <v>457.5287977924534</v>
       </c>
       <c r="F172">
-        <v>4.028181414475419</v>
+        <v>99.74630167053044</v>
       </c>
       <c r="G172">
-        <v>93.55461219592144</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4356,19 +4356,19 @@
         <v>17.09999999999997</v>
       </c>
       <c r="C173">
-        <v>1.088554703409689</v>
+        <v>2.400358909442613</v>
       </c>
       <c r="D173">
-        <v>0.520290938756311</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E173">
-        <v>477.806574799053</v>
+        <v>457.5287977924532</v>
       </c>
       <c r="F173">
-        <v>4.028181414475453</v>
+        <v>99.7463016705306</v>
       </c>
       <c r="G173">
-        <v>93.55461219592146</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4379,19 +4379,19 @@
         <v>17.19999999999997</v>
       </c>
       <c r="C174">
-        <v>1.036512277868592</v>
+        <v>2.356045994743452</v>
       </c>
       <c r="D174">
-        <v>0.5158816935126136</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E174">
-        <v>475.4330991129313</v>
+        <v>457.5287977924532</v>
       </c>
       <c r="F174">
-        <v>3.913235811364726</v>
+        <v>99.7463016705306</v>
       </c>
       <c r="G174">
-        <v>91.99095473609763</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4402,19 +4402,19 @@
         <v>17.29999999999998</v>
       </c>
       <c r="C175">
-        <v>0.985558660201062</v>
+        <v>2.311733080044291</v>
       </c>
       <c r="D175">
-        <v>0.5026539577815209</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E175">
-        <v>460.6282721405325</v>
+        <v>457.5287977924532</v>
       </c>
       <c r="F175">
-        <v>3.861785661138322</v>
+        <v>99.7463016705306</v>
       </c>
       <c r="G175">
-        <v>87.42518385943838</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4425,19 +4425,19 @@
         <v>17.39999999999998</v>
       </c>
       <c r="C176">
-        <v>0.9359846540336105</v>
+        <v>2.26742016534513</v>
       </c>
       <c r="D176">
-        <v>0.4872215994285795</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E176">
-        <v>445.3784474651479</v>
+        <v>457.5287977924531</v>
       </c>
       <c r="F176">
-        <v>3.72749237278772</v>
+        <v>99.7463016705307</v>
       </c>
       <c r="G176">
-        <v>82.22880988801442</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4448,19 +4448,19 @@
         <v>17.49999999999998</v>
       </c>
       <c r="C177">
-        <v>0.8879538837014532</v>
+        <v>2.223107250645969</v>
       </c>
       <c r="D177">
-        <v>0.471789241075638</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E177">
-        <v>429.7957058298688</v>
+        <v>457.5287977924531</v>
       </c>
       <c r="F177">
-        <v>3.607778055614562</v>
+        <v>99.7463016705307</v>
       </c>
       <c r="G177">
-        <v>77.18908040155053</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4471,19 +4471,19 @@
         <v>17.59999999999998</v>
       </c>
       <c r="C178">
-        <v>0.8414663492045902</v>
+        <v>2.178794335946808</v>
       </c>
       <c r="D178">
-        <v>0.4563568827226966</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E178">
-        <v>413.9459152409879</v>
+        <v>457.5287977924531</v>
       </c>
       <c r="F178">
-        <v>3.499697685299724</v>
+        <v>99.7463016705307</v>
       </c>
       <c r="G178">
-        <v>72.30571122110851</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4494,19 +4494,19 @@
         <v>17.69999999999998</v>
       </c>
       <c r="C179">
-        <v>0.7965220505430213</v>
+        <v>2.134481421247647</v>
       </c>
       <c r="D179">
-        <v>0.4409245243697552</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E179">
-        <v>397.8946478769464</v>
+        <v>457.528797792453</v>
       </c>
       <c r="F179">
-        <v>3.400703569421109</v>
+        <v>99.74630167053076</v>
       </c>
       <c r="G179">
-        <v>67.57851150159341</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4517,19 +4517,19 @@
         <v>17.79999999999998</v>
       </c>
       <c r="C180">
-        <v>0.7532645178353564</v>
+        <v>2.090168506548486</v>
       </c>
       <c r="D180">
-        <v>0.4254921660168137</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E180">
-        <v>381.7616303943867</v>
+        <v>457.5287977924528</v>
       </c>
       <c r="F180">
-        <v>3.306528612905637</v>
+        <v>99.74630167053087</v>
       </c>
       <c r="G180">
-        <v>63.00712080945075</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4540,19 +4540,19 @@
         <v>17.89999999999998</v>
       </c>
       <c r="C181">
-        <v>0.7115080192393781</v>
+        <v>2.045855591849325</v>
       </c>
       <c r="D181">
-        <v>0.4078551850420235</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E181">
-        <v>365.5442494980205</v>
+        <v>457.5287977924528</v>
       </c>
       <c r="F181">
-        <v>3.122510023069778</v>
+        <v>99.74630167053087</v>
       </c>
       <c r="G181">
-        <v>57.96354659948921</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4563,19 +4563,19 @@
         <v>17.99999999999999</v>
       </c>
       <c r="C182">
-        <v>0.6714138903458766</v>
+        <v>2.001542677150164</v>
       </c>
       <c r="D182">
-        <v>0.3924228266890821</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E182">
-        <v>349.3702381499785</v>
+        <v>457.5287977924527</v>
       </c>
       <c r="F182">
-        <v>3.033564291975614</v>
+        <v>99.74630167053095</v>
       </c>
       <c r="G182">
-        <v>53.72718817312289</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4586,19 +4586,19 @@
         <v>18.09999999999999</v>
       </c>
       <c r="C183">
-        <v>0.6330065274062792</v>
+        <v>1.957229762451003</v>
       </c>
       <c r="D183">
-        <v>0.3769904683361407</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E183">
-        <v>333.3174322533081</v>
+        <v>457.5287977924527</v>
       </c>
       <c r="F183">
-        <v>2.942513887817163</v>
+        <v>99.74630167053095</v>
       </c>
       <c r="G183">
-        <v>49.64695351984464</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4609,19 +4609,19 @@
         <v>18.19999999999999</v>
       </c>
       <c r="C184">
-        <v>0.5961001985783682</v>
+        <v>1.912916847751841</v>
       </c>
       <c r="D184">
-        <v>0.3593534873613505</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E184">
-        <v>317.3712316259064</v>
+        <v>457.5287977924525</v>
       </c>
       <c r="F184">
-        <v>2.758387117928923</v>
+        <v>99.74630167053101</v>
       </c>
       <c r="G184">
-        <v>45.16750730901805</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4632,19 +4632,19 @@
         <v>18.29999999999999</v>
       </c>
       <c r="C185">
-        <v>0.5608562394529339</v>
+        <v>1.86860393305268</v>
       </c>
       <c r="D185">
-        <v>0.343921129008409</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E185">
-        <v>301.6623252914099</v>
+        <v>457.5287977924524</v>
       </c>
       <c r="F185">
-        <v>2.659607979666117</v>
+        <v>99.74630167053108</v>
       </c>
       <c r="G185">
-        <v>41.4238441358245</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4655,19 +4655,19 @@
         <v>18.39999999999999</v>
       </c>
       <c r="C186">
-        <v>0.5272990462814039</v>
+        <v>1.824291018353519</v>
       </c>
       <c r="D186">
-        <v>0.3284887706554676</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E186">
-        <v>286.2646184007968</v>
+        <v>457.5287977924524</v>
       </c>
       <c r="F186">
-        <v>2.552515413253313</v>
+        <v>99.74630167053108</v>
       </c>
       <c r="G186">
-        <v>37.83737927226492</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4678,19 +4678,19 @@
         <v>18.49999999999999</v>
       </c>
       <c r="C187">
-        <v>0.495285088945168</v>
+        <v>1.779978103654358</v>
       </c>
       <c r="D187">
-        <v>0.3130564123025262</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E187">
-        <v>271.1709997379115</v>
+        <v>457.5287977924523</v>
       </c>
       <c r="F187">
-        <v>2.437441635424651</v>
+        <v>99.74630167053122</v>
       </c>
       <c r="G187">
-        <v>34.40880416696045</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4701,19 +4701,19 @@
         <v>18.59999999999999</v>
       </c>
       <c r="C188">
-        <v>0.4647432956624754</v>
+        <v>1.735665188955197</v>
       </c>
       <c r="D188">
-        <v>0.2976240539495847</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E188">
-        <v>256.4007995739148</v>
+        <v>457.5287977924521</v>
       </c>
       <c r="F188">
-        <v>2.313972547319361</v>
+        <v>99.74630167053128</v>
       </c>
       <c r="G188">
-        <v>31.13873445316113</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4724,19 +4724,19 @@
         <v>18.7</v>
       </c>
       <c r="C189">
-        <v>0.4356722798782178</v>
+        <v>1.691352274256036</v>
       </c>
       <c r="D189">
-        <v>0.2821916955966433</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E189">
-        <v>242.0031222015333</v>
+        <v>457.5287977924521</v>
       </c>
       <c r="F189">
-        <v>2.18094877242785</v>
+        <v>99.74630167053135</v>
       </c>
       <c r="G189">
-        <v>28.02773212907169</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4747,19 +4747,19 @@
         <v>18.8</v>
       </c>
       <c r="C190">
-        <v>0.4081156298711112</v>
+        <v>1.647039359556875</v>
       </c>
       <c r="D190">
-        <v>0.2667593372437019</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E190">
-        <v>228.0482468386172</v>
+        <v>457.5287977924519</v>
       </c>
       <c r="F190">
-        <v>2.036984296596468</v>
+        <v>99.74630167053138</v>
       </c>
       <c r="G190">
-        <v>25.07635578099343</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4770,19 +4770,19 @@
         <v>18.9</v>
       </c>
       <c r="C191">
-        <v>0.3820031760487215</v>
+        <v>1.602726444857713</v>
       </c>
       <c r="D191">
-        <v>0.2535316015126092</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E191">
-        <v>214.5469792063891</v>
+        <v>457.5287977924519</v>
       </c>
       <c r="F191">
-        <v>1.963473204282949</v>
+        <v>99.74630167053145</v>
       </c>
       <c r="G191">
-        <v>22.6780242399618</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4793,19 +4793,19 @@
         <v>19</v>
       </c>
       <c r="C192">
-        <v>0.3573836072317693</v>
+        <v>1.558413530158552</v>
       </c>
       <c r="D192">
-        <v>0.2403038657815166</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E192">
-        <v>201.5685040531138</v>
+        <v>457.5287977924517</v>
       </c>
       <c r="F192">
-        <v>1.875440768560763</v>
+        <v>99.74630167053152</v>
       </c>
       <c r="G192">
-        <v>20.39695706716347</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4816,19 +4816,19 @@
         <v>19.1</v>
       </c>
       <c r="C193">
-        <v>0.3340868119879263</v>
+        <v>1.514100615459391</v>
       </c>
       <c r="D193">
-        <v>0.2270761300504239</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E193">
-        <v>189.0633966676407</v>
+        <v>457.5287977924516</v>
       </c>
       <c r="F193">
-        <v>1.774163592000472</v>
+        <v>99.74630167053161</v>
       </c>
       <c r="G193">
-        <v>18.2338353442003</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4839,19 +4839,19 @@
         <v>19.2</v>
       </c>
       <c r="C194">
-        <v>0.312070588593585</v>
+        <v>1.46978770076023</v>
       </c>
       <c r="D194">
-        <v>0.2138483943193313</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E194">
-        <v>177.0444143406394</v>
+        <v>457.5287977924514</v>
       </c>
       <c r="F194">
-        <v>1.659558147786939</v>
+        <v>99.74630167053174</v>
       </c>
       <c r="G194">
-        <v>16.18920527790482</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4862,19 +4862,19 @@
         <v>19.3</v>
       </c>
       <c r="C195">
-        <v>0.2914193404959606</v>
+        <v>1.425474786061069</v>
       </c>
       <c r="D195">
-        <v>0.2006206585882386</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E195">
-        <v>165.5919101826837</v>
+        <v>457.5287977924513</v>
       </c>
       <c r="F195">
-        <v>1.530318189929085</v>
+        <v>99.74630167053181</v>
       </c>
       <c r="G195">
-        <v>14.26352225902725</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4885,19 +4885,19 @@
         <v>19.40000000000001</v>
       </c>
       <c r="C196">
-        <v>0.2718194261441151</v>
+        <v>1.381161871361908</v>
       </c>
       <c r="D196">
-        <v>0.1895975454789947</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E196">
-        <v>154.5616739365704</v>
+        <v>457.528797792451</v>
       </c>
       <c r="F196">
-        <v>1.468269613649703</v>
+        <v>99.74630167053195</v>
       </c>
       <c r="G196">
-        <v>12.75238817725075</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4908,19 +4908,19 @@
         <v>19.50000000000001</v>
       </c>
       <c r="C197">
-        <v>0.2534208627537712</v>
+        <v>1.336848956662747</v>
       </c>
       <c r="D197">
-        <v>0.1785744323697508</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E197">
-        <v>144.0643977499317</v>
+        <v>457.5287977924509</v>
       </c>
       <c r="F197">
-        <v>1.391660613439159</v>
+        <v>99.74630167053205</v>
       </c>
       <c r="G197">
-        <v>11.32397430864461</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4931,19 +4931,19 @@
         <v>19.60000000000001</v>
       </c>
       <c r="C198">
-        <v>0.2361246106743518</v>
+        <v>1.292536041963586</v>
       </c>
       <c r="D198">
-        <v>0.167551319260507</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E198">
-        <v>134.0691047548593</v>
+        <v>457.5287977924507</v>
       </c>
       <c r="F198">
-        <v>1.301162517006502</v>
+        <v>99.74630167053211</v>
       </c>
       <c r="G198">
-        <v>9.978711878205026</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4954,19 +4954,19 @@
         <v>19.70000000000001</v>
       </c>
       <c r="C199">
-        <v>0.2200017416876076</v>
+        <v>1.248223127264424</v>
       </c>
       <c r="D199">
-        <v>0.1565282061512631</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E199">
-        <v>124.6406636082671</v>
+        <v>457.5287977924505</v>
       </c>
       <c r="F199">
-        <v>1.195619437159003</v>
+        <v>99.7463016705323</v>
       </c>
       <c r="G199">
-        <v>8.716925456433017</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4977,19 +4977,19 @@
         <v>19.80000000000001</v>
       </c>
       <c r="C200">
-        <v>0.2049523139536446</v>
+        <v>1.203910212565263</v>
       </c>
       <c r="D200">
-        <v>0.1455050930420192</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E200">
-        <v>115.7427452458448</v>
+        <v>457.5287977924503</v>
       </c>
       <c r="F200">
-        <v>1.078207535907943</v>
+        <v>99.74630167053239</v>
       </c>
       <c r="G200">
-        <v>7.539032001300241</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5000,19 +5000,19 @@
         <v>19.90000000000001</v>
       </c>
       <c r="C201">
-        <v>0.1907626277614188</v>
+        <v>1.159597297866102</v>
       </c>
       <c r="D201">
-        <v>0.1366866025546241</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E201">
-        <v>107.2668689378874</v>
+        <v>457.5287977924501</v>
       </c>
       <c r="F201">
-        <v>1.021977008547786</v>
+        <v>99.74630167053255</v>
       </c>
       <c r="G201">
-        <v>6.658524585128286</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5023,19 +5023,19 @@
         <v>20.00000000000001</v>
       </c>
       <c r="C202">
-        <v>0.1774547906179326</v>
+        <v>1.115284383166941</v>
       </c>
       <c r="D202">
-        <v>0.127868112067229</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E202">
-        <v>99.24139774924257</v>
+        <v>457.5287977924499</v>
       </c>
       <c r="F202">
-        <v>0.9544891772246609</v>
+        <v>99.74630167053273</v>
       </c>
       <c r="G202">
-        <v>5.83178674328957</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5046,19 +5046,19 @@
         <v>20.10000000000002</v>
       </c>
       <c r="C203">
-        <v>0.1650288025231859</v>
+        <v>1.07097146846778</v>
       </c>
       <c r="D203">
-        <v>0.1190496215798339</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E203">
-        <v>91.68081598599517</v>
+        <v>457.5287977924496</v>
       </c>
       <c r="F203">
-        <v>0.8757404611491989</v>
+        <v>99.74630167053282</v>
       </c>
       <c r="G203">
-        <v>5.059028626559434</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5069,19 +5069,19 @@
         <v>20.20000000000002</v>
       </c>
       <c r="C204">
-        <v>0.1535557352589296</v>
+        <v>1.026658553768619</v>
       </c>
       <c r="D204">
-        <v>0.1102311310924388</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E204">
-        <v>84.64248881302122</v>
+        <v>457.5287977924493</v>
       </c>
       <c r="F204">
-        <v>0.7858439781667397</v>
+        <v>99.74630167053306</v>
       </c>
       <c r="G204">
-        <v>4.340437008160849</v>
+        <v>67.19992462034523</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5092,19 +5092,19 @@
         <v>20.30000000000002</v>
       </c>
       <c r="C205">
-        <v>0.1428343185902673</v>
+        <v>0.9823456390694579</v>
       </c>
       <c r="D205">
-        <v>0.1036172632268925</v>
+        <v>0.4431291469916039</v>
       </c>
       <c r="E205">
-        <v>78.01519619440734</v>
+        <v>456.9520341946923</v>
       </c>
       <c r="F205">
-        <v>0.7514232344053473</v>
+        <v>100.1139049156693</v>
       </c>
       <c r="G205">
-        <v>3.837843934004245</v>
+        <v>67.20244939194311</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5115,19 +5115,19 @@
         <v>20.40000000000002</v>
       </c>
       <c r="C206">
-        <v>0.132875617103162</v>
+        <v>0.9385939155278527</v>
       </c>
       <c r="D206">
-        <v>0.09700339536134613</v>
+        <v>0.4321060338823601</v>
       </c>
       <c r="E206">
-        <v>71.81591688248368</v>
+        <v>443.8323444105176</v>
       </c>
       <c r="F206">
-        <v>0.7071991591775033</v>
+        <v>98.51607325464602</v>
       </c>
       <c r="G206">
-        <v>3.365721714835478</v>
+        <v>63.95552974592865</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5138,19 +5138,19 @@
         <v>20.50000000000002</v>
       </c>
       <c r="C207">
-        <v>0.1235783024026112</v>
+        <v>0.8960458316921742</v>
       </c>
       <c r="D207">
-        <v>0.0903895274957998</v>
+        <v>0.4188782981512674</v>
       </c>
       <c r="E207">
-        <v>65.99049313422182</v>
+        <v>430.4229039308727</v>
       </c>
       <c r="F207">
-        <v>0.6542669284096869</v>
+        <v>95.09815641011632</v>
       </c>
       <c r="G207">
-        <v>2.924199431963798</v>
+        <v>60.15310023047121</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5161,19 +5161,19 @@
         <v>20.60000000000002</v>
       </c>
       <c r="C208">
-        <v>0.1149423744886152</v>
+        <v>0.8547191930346028</v>
       </c>
       <c r="D208">
-        <v>0.08377565963025348</v>
+        <v>0.4056505624201747</v>
       </c>
       <c r="E208">
-        <v>60.54665613158964</v>
+        <v>416.7764272810895</v>
       </c>
       <c r="F208">
-        <v>0.5930471426399074</v>
+        <v>91.83682490836786</v>
       </c>
       <c r="G208">
-        <v>2.513375273381876</v>
+        <v>56.46534561581795</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5184,19 +5184,19 @@
         <v>20.70000000000002</v>
       </c>
       <c r="C209">
-        <v>0.1068243032425638</v>
+        <v>0.8146162882995633</v>
       </c>
       <c r="D209">
-        <v>0.07716179176470715</v>
+        <v>0.3946274493109309</v>
       </c>
       <c r="E209">
-        <v>55.40038089090926</v>
+        <v>402.9410497338496</v>
       </c>
       <c r="F209">
-        <v>0.5268262674651021</v>
+        <v>90.62431904950016</v>
       </c>
       <c r="G209">
-        <v>2.133364715497016</v>
+        <v>53.48813985674496</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5207,19 +5207,19 @@
         <v>20.80000000000003</v>
       </c>
       <c r="C210">
-        <v>0.09948089228842566</v>
+        <v>0.7758871347027788</v>
       </c>
       <c r="D210">
-        <v>0.0727525465210096</v>
+        <v>0.3813997135798382</v>
       </c>
       <c r="E210">
-        <v>50.72103124885587</v>
+        <v>389.0189007312986</v>
       </c>
       <c r="F210">
-        <v>0.5095894414819645</v>
+        <v>87.50720746423117</v>
       </c>
       <c r="G210">
-        <v>1.897472860050974</v>
+        <v>50.00984591952136</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5230,19 +5230,19 @@
         <v>20.90000000000003</v>
       </c>
       <c r="C211">
-        <v>0.09246513235329869</v>
+        <v>0.7384807546791035</v>
       </c>
       <c r="D211">
-        <v>0.06613867865546327</v>
+        <v>0.3681719778487456</v>
       </c>
       <c r="E211">
-        <v>46.22899881331949</v>
+        <v>375.0435790044297</v>
       </c>
       <c r="F211">
-        <v>0.4321928664492508</v>
+        <v>84.42220059386943</v>
       </c>
       <c r="G211">
-        <v>1.568922400289414</v>
+        <v>46.64596640736842</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5253,19 +5253,19 @@
         <v>21.00000000000003</v>
       </c>
       <c r="C212">
-        <v>0.08591039115914688</v>
+        <v>0.7022536181099275</v>
       </c>
       <c r="D212">
-        <v>0.06172943341176572</v>
+        <v>0.3549442421176529</v>
       </c>
       <c r="E212">
-        <v>42.01316029264064</v>
+        <v>361.0085791746359</v>
       </c>
       <c r="F212">
-        <v>0.405144032026493</v>
+        <v>81.37208528044243</v>
       </c>
       <c r="G212">
-        <v>1.367333649205269</v>
+        <v>43.39673661016658</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5276,19 +5276,19 @@
         <v>21.10000000000003</v>
       </c>
       <c r="C213">
-        <v>0.0799378158635497</v>
+        <v>0.6672502154632836</v>
       </c>
       <c r="D213">
-        <v>0.05732018816806817</v>
+        <v>0.3417165063865602</v>
       </c>
       <c r="E213">
-        <v>38.15576181308157</v>
+        <v>346.9755431277646</v>
       </c>
       <c r="F213">
-        <v>0.3716371379434357</v>
+        <v>78.32006209788531</v>
       </c>
       <c r="G213">
-        <v>1.179474898353466</v>
+        <v>40.26219891929051</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5299,19 +5299,19 @@
         <v>21.20000000000003</v>
       </c>
       <c r="C214">
-        <v>0.0744061650923223</v>
+        <v>0.633569586389749</v>
       </c>
       <c r="D214">
-        <v>0.05291094292437062</v>
+        <v>0.3306933932773163</v>
       </c>
       <c r="E214">
-        <v>34.56951296001409</v>
+        <v>333.030711833899</v>
       </c>
       <c r="F214">
-        <v>0.3337876177186508</v>
+        <v>77.08369086997313</v>
       </c>
       <c r="G214">
-        <v>1.005393471656876</v>
+        <v>37.74395731295719</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5322,19 +5322,19 @@
         <v>21.30000000000003</v>
       </c>
       <c r="C215">
-        <v>0.06917419747127974</v>
+        <v>0.601162766614575</v>
       </c>
       <c r="D215">
-        <v>0.04850169768067306</v>
+        <v>0.3174656575462237</v>
       </c>
       <c r="E215">
-        <v>31.16548266410714</v>
+        <v>319.2003806687612</v>
       </c>
       <c r="F215">
-        <v>0.293957979534809</v>
+        <v>73.89371531150923</v>
       </c>
       <c r="G215">
-        <v>0.8451282335123488</v>
+        <v>34.81945531390267</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5345,19 +5345,19 @@
         <v>21.40000000000003</v>
       </c>
       <c r="C216">
-        <v>0.0644542261563579</v>
+        <v>0.5701497921942612</v>
       </c>
       <c r="D216">
-        <v>0.04629707505882429</v>
+        <v>0.3042379218151311</v>
       </c>
       <c r="E216">
-        <v>28.08448814046589</v>
+        <v>305.5825580852632</v>
       </c>
       <c r="F216">
-        <v>0.2963213687828082</v>
+        <v>70.58794846230131</v>
       </c>
       <c r="G216">
-        <v>0.7703084695198389</v>
+        <v>32.00997856304939</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5368,19 +5368,19 @@
         <v>21.50000000000004</v>
       </c>
       <c r="C217">
-        <v>0.06012621509105718</v>
+        <v>0.5402871911703035</v>
       </c>
       <c r="D217">
-        <v>0.04188782981512674</v>
+        <v>0.2932148087058872</v>
       </c>
       <c r="E217">
-        <v>25.25093582478318</v>
+        <v>292.1136783889134</v>
       </c>
       <c r="F217">
-        <v>0.24783276564899</v>
+        <v>69.04576680171364</v>
       </c>
       <c r="G217">
-        <v>0.6307696026344024</v>
+        <v>29.7619103403739</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5391,19 +5391,19 @@
         <v>21.60000000000004</v>
       </c>
       <c r="C218">
-        <v>0.05613780015512394</v>
+        <v>0.5116282298522725</v>
       </c>
       <c r="D218">
-        <v>0.03747858457142919</v>
+        <v>0.2799870729747945</v>
       </c>
       <c r="E218">
-        <v>22.63258452032709</v>
+        <v>278.8565969852748</v>
       </c>
       <c r="F218">
-        <v>0.201053657762622</v>
+        <v>65.52916132316335</v>
       </c>
       <c r="G218">
-        <v>0.5051134515890306</v>
+        <v>27.16397300547088</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5414,19 +5414,19 @@
         <v>21.70000000000004</v>
       </c>
       <c r="C219">
-        <v>0.05249127009298323</v>
+        <v>0.4841907137123485</v>
       </c>
       <c r="D219">
-        <v>0.03527396194958041</v>
+        <v>0.2667593372437019</v>
       </c>
       <c r="E219">
-        <v>20.23268439844178</v>
+        <v>265.8585347449498</v>
       </c>
       <c r="F219">
-        <v>0.1913017278931485</v>
+        <v>61.89173398335015</v>
       </c>
       <c r="G219">
-        <v>0.4475570323422523</v>
+        <v>24.68205265623293</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5437,19 +5437,19 @@
         <v>21.80000000000004</v>
       </c>
       <c r="C220">
-        <v>0.04906520229302742</v>
+        <v>0.4579769314949566</v>
       </c>
       <c r="D220">
-        <v>0.03306933932773164</v>
+        <v>0.255736224134458</v>
       </c>
       <c r="E220">
-        <v>17.97265767571777</v>
+        <v>253.1586984280063</v>
       </c>
       <c r="F220">
-        <v>0.1799709357743425</v>
+        <v>59.89022163118945</v>
       </c>
       <c r="G220">
-        <v>0.3934611070387684</v>
+        <v>22.70628557195373</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5460,19 +5460,19 @@
         <v>21.90000000000004</v>
       </c>
       <c r="C221">
-        <v>0.0459586364058337</v>
+        <v>0.4330355720208172</v>
       </c>
       <c r="D221">
-        <v>0.03086471670588286</v>
+        <v>0.2447131110252141</v>
       </c>
       <c r="E221">
-        <v>15.91901709867377</v>
+        <v>240.818307838644</v>
       </c>
       <c r="F221">
-        <v>0.1662771400551543</v>
+        <v>57.69113571928212</v>
       </c>
       <c r="G221">
-        <v>0.3428281161748313</v>
+        <v>20.81077688217988</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5483,19 +5483,19 @@
         <v>22.00000000000004</v>
       </c>
       <c r="C222">
-        <v>0.04303033105721717</v>
+        <v>0.4091965238576022</v>
       </c>
       <c r="D222">
-        <v>0.02645547146218531</v>
+        <v>0.2336899979159702</v>
       </c>
       <c r="E222">
-        <v>13.97940552122327</v>
+        <v>228.7876500245596</v>
       </c>
       <c r="F222">
-        <v>0.1197429427654841</v>
+        <v>55.32134780474224</v>
       </c>
       <c r="G222">
-        <v>0.2519292507718252</v>
+        <v>18.99591989956741</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5506,19 +5506,19 @@
         <v>22.10000000000004</v>
       </c>
       <c r="C223">
-        <v>0.04034258218739094</v>
+        <v>0.3864597870053117</v>
       </c>
       <c r="D223">
-        <v>0.02425084884033653</v>
+        <v>0.2226668848067264</v>
       </c>
       <c r="E223">
-        <v>12.19587168021025</v>
+        <v>217.0974457064948</v>
       </c>
       <c r="F223">
-        <v>0.1052913943948643</v>
+        <v>52.76604624753035</v>
       </c>
       <c r="G223">
-        <v>0.2117335878801285</v>
+        <v>17.26197065357074</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5529,19 +5529,19 @@
         <v>22.20000000000005</v>
       </c>
       <c r="C224">
-        <v>0.03787529557974957</v>
+        <v>0.3648253614639455</v>
       </c>
       <c r="D224">
-        <v>0.02204622621848776</v>
+        <v>0.2116437716974825</v>
       </c>
       <c r="E224">
-        <v>10.55588431415378</v>
+        <v>205.7772805167568</v>
       </c>
       <c r="F224">
-        <v>0.09047118302559271</v>
+        <v>50.01475479046131</v>
       </c>
       <c r="G224">
-        <v>0.1750192319224786</v>
+        <v>15.60919811656123</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5552,19 +5552,19 @@
         <v>22.30000000000005</v>
       </c>
       <c r="C225">
-        <v>0.03562847123429309</v>
+        <v>0.3442932472335037</v>
       </c>
       <c r="D225">
-        <v>0.01984160359663898</v>
+        <v>0.2006206585882386</v>
       </c>
       <c r="E225">
-        <v>9.060147165775662</v>
+        <v>194.8555639775973</v>
       </c>
       <c r="F225">
-        <v>0.07568437727750355</v>
+        <v>47.06318780986015</v>
       </c>
       <c r="G225">
-        <v>0.1417898674734899</v>
+        <v>14.03788207165609</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5575,19 +5575,19 @@
         <v>22.40000000000005</v>
       </c>
       <c r="C226">
-        <v>0.03367318093277242</v>
+        <v>0.3247644046634092</v>
       </c>
       <c r="D226">
-        <v>0.01763698097479021</v>
+        <v>0.1918021681008435</v>
       </c>
       <c r="E226">
-        <v>7.756710733601782</v>
+        <v>184.3055874110783</v>
       </c>
       <c r="F226">
-        <v>0.06116992550878662</v>
+        <v>45.65788180784443</v>
       </c>
       <c r="G226">
-        <v>0.112048262742375</v>
+        <v>12.84188508325665</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5598,19 +5598,19 @@
         <v>22.50000000000005</v>
       </c>
       <c r="C227">
-        <v>0.03190948283529338</v>
+        <v>0.306187580734488</v>
       </c>
       <c r="D227">
-        <v>0.01763698097479021</v>
+        <v>0.1807790549915996</v>
       </c>
       <c r="E227">
-        <v>6.579574417918959</v>
+        <v>174.1227196170771</v>
       </c>
       <c r="F227">
-        <v>0.0663727344685036</v>
+        <v>42.33242363301914</v>
       </c>
       <c r="G227">
-        <v>0.1120634316756333</v>
+        <v>11.41773866543492</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5621,19 +5621,19 @@
         <v>22.60000000000005</v>
       </c>
       <c r="C228">
-        <v>0.0303883545070015</v>
+        <v>0.2884704983473042</v>
       </c>
       <c r="D228">
-        <v>0.01543235835294143</v>
+        <v>0.1719605645042045</v>
       </c>
       <c r="E228">
-        <v>5.563253724701872</v>
+        <v>164.2768256114879</v>
       </c>
       <c r="F228">
-        <v>0.05108903097422899</v>
+        <v>40.55476763998695</v>
       </c>
       <c r="G228">
-        <v>0.08580860997661226</v>
+        <v>10.33939565932816</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5644,19 +5644,19 @@
         <v>22.70000000000005</v>
       </c>
       <c r="C229">
-        <v>0.0289464470667096</v>
+        <v>0.2716352650088599</v>
       </c>
       <c r="D229">
-        <v>0.01322773573109265</v>
+        <v>0.1631420740168094</v>
       </c>
       <c r="E229">
-        <v>4.598938263053039</v>
+        <v>154.7990126082881</v>
       </c>
       <c r="F229">
-        <v>0.03779439687975811</v>
+        <v>38.59070595834172</v>
       </c>
       <c r="G229">
-        <v>0.06305007420331707</v>
+        <v>9.313501229317886</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5667,19 +5667,19 @@
         <v>22.80000000000005</v>
       </c>
       <c r="C230">
-        <v>0.02765254355174358</v>
+        <v>0.255681880719155</v>
       </c>
       <c r="D230">
-        <v>0.01322773573109265</v>
+        <v>0.1543235835294143</v>
       </c>
       <c r="E230">
-        <v>3.732837783578145</v>
+        <v>145.7075306637542</v>
       </c>
       <c r="F230">
-        <v>0.04020570531667685</v>
+        <v>36.43251284245518</v>
       </c>
       <c r="G230">
-        <v>0.06305638314076344</v>
+        <v>8.340234485182306</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5690,19 +5690,19 @@
         <v>22.90000000000006</v>
       </c>
       <c r="C231">
-        <v>0.02655900808235704</v>
+        <v>0.2406103454781898</v>
       </c>
       <c r="D231">
-        <v>0.01102311310924388</v>
+        <v>0.1455050930420192</v>
       </c>
       <c r="E231">
-        <v>3.000292053708089</v>
+        <v>137.0197862022494</v>
       </c>
       <c r="F231">
-        <v>0.02777267171132258</v>
+        <v>34.07947066147735</v>
       </c>
       <c r="G231">
-        <v>0.04379286545072845</v>
+        <v>7.419775871905913</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5713,19 +5713,19 @@
         <v>23.00000000000006</v>
       </c>
       <c r="C232">
-        <v>0.02555802516643491</v>
+        <v>0.2264917310677149</v>
       </c>
       <c r="D232">
-        <v>0.008818490487395103</v>
+        <v>0.1388912251764729</v>
       </c>
       <c r="E232">
-        <v>2.329291752162388</v>
+        <v>128.7939464152125</v>
       </c>
       <c r="F232">
-        <v>0.0177462497331165</v>
+        <v>33.1688211264492</v>
       </c>
       <c r="G232">
-        <v>0.02802961160736099</v>
+        <v>6.765350940582925</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5736,19 +5736,19 @@
         <v>23.10000000000006</v>
       </c>
       <c r="C233">
-        <v>0.02467617611769539</v>
+        <v>0.2129634316620438</v>
       </c>
       <c r="D233">
-        <v>0.008818490487395103</v>
+        <v>0.1300727346890778</v>
       </c>
       <c r="E233">
-        <v>1.737791897496852</v>
+        <v>120.8324667796905</v>
       </c>
       <c r="F233">
-        <v>0.01849454574999944</v>
+        <v>30.45939189525241</v>
       </c>
       <c r="G233">
-        <v>0.02803153331045554</v>
+        <v>5.937617456048173</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5759,19 +5759,19 @@
         <v>23.20000000000006</v>
       </c>
       <c r="C234">
-        <v>0.02402356517267861</v>
+        <v>0.2003591830287199</v>
       </c>
       <c r="D234">
-        <v>0.006613867865546327</v>
+        <v>0.1234588668235314</v>
       </c>
       <c r="E234">
-        <v>1.299836282050742</v>
+        <v>113.3445037880723</v>
       </c>
       <c r="F234">
-        <v>0.01029854455844207</v>
+        <v>29.17746332786058</v>
       </c>
       <c r="G234">
-        <v>0.01576853852625153</v>
+        <v>5.352635884063279</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5782,19 +5782,19 @@
         <v>23.30000000000006</v>
       </c>
       <c r="C235">
-        <v>0.02339104844426722</v>
+        <v>0.1884451912400939</v>
       </c>
       <c r="D235">
-        <v>0.004409245243697552</v>
+        <v>0.1168449989579851</v>
       </c>
       <c r="E235">
-        <v>0.875189270675742</v>
+        <v>106.2040896791265</v>
       </c>
       <c r="F235">
-        <v>0.004574953297400056</v>
+        <v>27.72793650850965</v>
       </c>
       <c r="G235">
-        <v>0.007008584790136108</v>
+        <v>4.797508829071379</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5805,19 +5805,19 @@
         <v>23.40000000000006</v>
       </c>
       <c r="C236">
-        <v>0.02295012391989746</v>
+        <v>0.1771925862380225</v>
       </c>
       <c r="D236">
-        <v>0.004409245243697552</v>
+        <v>0.1102311310924388</v>
       </c>
       <c r="E236">
-        <v>0.5790671282011</v>
+        <v>99.40411700675078</v>
       </c>
       <c r="F236">
-        <v>0.004667014275036399</v>
+        <v>26.11310709456853</v>
       </c>
       <c r="G236">
-        <v>0.007008825825656872</v>
+        <v>4.272335971199961</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5828,19 +5828,19 @@
         <v>23.50000000000006</v>
       </c>
       <c r="C237">
-        <v>0.02261052779052998</v>
+        <v>0.1665724979643625</v>
       </c>
       <c r="D237">
-        <v>0.004409245243697552</v>
+        <v>0.1036172632268925</v>
       </c>
       <c r="E237">
-        <v>0.3509390077551852</v>
+        <v>92.93639294633263</v>
       </c>
       <c r="F237">
-        <v>0.004740542696594826</v>
+        <v>24.34211790325059</v>
       </c>
       <c r="G237">
-        <v>0.007009011596526392</v>
+        <v>3.777212907582046</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5851,19 +5851,19 @@
         <v>23.60000000000007</v>
       </c>
       <c r="C238">
-        <v>0.02232776958813203</v>
+        <v>0.1564702663586472</v>
       </c>
       <c r="D238">
-        <v>0.002204622621848776</v>
+        <v>0.09700339536134613</v>
       </c>
       <c r="E238">
-        <v>0.1609543323280185</v>
+        <v>86.73889311995893</v>
       </c>
       <c r="F238">
-        <v>0.001178275754855153</v>
+        <v>22.4558280244847</v>
       </c>
       <c r="G238">
-        <v>0.001752291589947398</v>
+        <v>3.312246589404118</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5874,19 +5874,19 @@
         <v>23.70000000000007</v>
       </c>
       <c r="C239">
-        <v>0.02210730732594715</v>
+        <v>0.1470716232630942</v>
       </c>
       <c r="D239">
-        <v>0.002204622621848776</v>
+        <v>0.0903895274957998</v>
       </c>
       <c r="E239">
-        <v>0.01280210891750881</v>
+        <v>80.93340481181066</v>
       </c>
       <c r="F239">
-        <v>0.001190172427768359</v>
+        <v>20.41815887865454</v>
       </c>
       <c r="G239">
-        <v>0.001752321769949373</v>
+        <v>2.877483215223272</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5897,19 +5897,19 @@
         <v>23.80000000000007</v>
       </c>
       <c r="C240">
-        <v>0.02198817345876454</v>
+        <v>0.1382353273035186</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>0.08598028225210225</v>
       </c>
       <c r="E240">
-        <v>-0.06726548229501465</v>
+        <v>75.44036426722913</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>19.77278706748028</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2.604900695452742</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5920,19 +5920,19 @@
         <v>23.90000000000007</v>
       </c>
       <c r="C241">
-        <v>0.02198817345876454</v>
+        <v>0.12993899551889</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>0.08157103700840469</v>
       </c>
       <c r="E241">
-        <v>-0.06726548229501465</v>
+        <v>70.25213137599096</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>19.00123048224684</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2.345694612462698</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5943,19 +5943,19 @@
         <v>24.00000000000007</v>
       </c>
       <c r="C242">
-        <v>0.02198817345876454</v>
+        <v>0.1220413865350235</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>0.07495716914285838</v>
       </c>
       <c r="E242">
-        <v>-0.06726548229501465</v>
+        <v>65.28542671842729</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>16.62118586753568</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>1.981637693476036</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5966,19 +5966,19 @@
         <v>24.10000000000007</v>
       </c>
       <c r="C243">
-        <v>0.02198817345876454</v>
+        <v>0.1146758680738831</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>0.07054792389916083</v>
       </c>
       <c r="E243">
-        <v>-0.06726548229501465</v>
+        <v>60.62884965538689</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>15.61589889737041</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>1.756116835910776</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5989,19 +5989,19 @@
         <v>24.20000000000007</v>
       </c>
       <c r="C244">
-        <v>0.02198817345876454</v>
+        <v>0.1077512741371124</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>0.06613867865546327</v>
       </c>
       <c r="E244">
-        <v>-0.06726548229501465</v>
+        <v>56.22943180030518</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>14.5098650101244</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1.544093440449469</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6012,19 +6012,19 @@
         <v>24.30000000000008</v>
       </c>
       <c r="C245">
-        <v>0.02198817345876454</v>
+        <v>0.1012676047247116</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>0.06172943341176572</v>
       </c>
       <c r="E245">
-        <v>-0.06726548229501465</v>
+        <v>52.09114179711344</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>13.30963485116464</v>
       </c>
       <c r="G245">
-        <v>0</v>
+        <v>1.345597065676836</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6035,19 +6035,19 @@
         <v>24.40000000000008</v>
       </c>
       <c r="C246">
-        <v>0.02198817345876454</v>
+        <v>0.09519598977853717</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>0.05952481078991694</v>
       </c>
       <c r="E246">
-        <v>-0.06726548229501465</v>
+        <v>48.19916081073258</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>13.42269695088333</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>1.251656448298746</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6058,19 +6058,19 @@
         <v>24.50000000000008</v>
       </c>
       <c r="C247">
-        <v>0.02198817345876454</v>
+        <v>0.08954520514012716</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>0.05511556554621939</v>
       </c>
       <c r="E247">
-        <v>-0.06726548229501465</v>
+        <v>44.56241415227184</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>12.01324466314689</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>1.073461624564087</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6081,19 +6081,19 @@
         <v>24.60000000000008</v>
       </c>
       <c r="C248">
-        <v>0.02198817345876454</v>
+        <v>0.08416384703865068</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>0.05070632030252184</v>
       </c>
       <c r="E248">
-        <v>-0.06726548229501465</v>
+        <v>41.08603249055045</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>10.58764943324569</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>0.9088769752569212</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6104,19 +6104,19 @@
         <v>24.70000000000008</v>
       </c>
       <c r="C249">
-        <v>0.02198817345876454</v>
+        <v>0.07919454340340069</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>0.04850169768067306</v>
       </c>
       <c r="E249">
-        <v>-0.06726548229501465</v>
+        <v>37.86453430910869</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>10.40558853726849</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>0.8318169400581155</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6127,19 +6127,19 @@
         <v>24.80000000000008</v>
       </c>
       <c r="C250">
-        <v>0.02198817345876454</v>
+        <v>0.0744457020303356</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>0.04629707505882429</v>
       </c>
       <c r="E250">
-        <v>-0.06726548229501465</v>
+        <v>34.77580188700526</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>10.19068457029981</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>0.7581392066928432</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6150,19 +6150,19 @@
         <v>24.90000000000008</v>
       </c>
       <c r="C251">
-        <v>0.02198817345876454</v>
+        <v>0.07011769096503487</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>0.04188782981512674</v>
       </c>
       <c r="E251">
-        <v>-0.06726548229501465</v>
+        <v>31.95213116507649</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>8.54538099452494</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>0.6207760724347128</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6173,19 +6173,19 @@
         <v>25.00000000000009</v>
       </c>
       <c r="C252">
-        <v>0.02198817345876454</v>
+        <v>0.06603023637852441</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>0.03968320719327797</v>
       </c>
       <c r="E252">
-        <v>-0.06726548229501465</v>
+        <v>29.27781871501317</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>8.163357729699117</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>0.5572939577860773</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6196,19 +6196,19 @@
         <v>25.10000000000009</v>
       </c>
       <c r="C253">
-        <v>0.02198817345876454</v>
+        <v>0.06216324405419883</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>0.03747858457142919</v>
       </c>
       <c r="E253">
-        <v>-0.06726548229501465</v>
+        <v>26.74095970951574</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>7.736704760047981</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>0.4972139709965426</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6219,19 +6219,19 @@
         <v>25.20000000000009</v>
       </c>
       <c r="C254">
-        <v>0.02198817345876454</v>
+        <v>0.05861575364263535</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>0.03527396194958041</v>
       </c>
       <c r="E254">
-        <v>-0.06726548229501465</v>
+        <v>24.4078927286272</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>7.243054884160622</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>0.4405379862073694</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6242,19 +6242,19 @@
         <v>25.30000000000009</v>
       </c>
       <c r="C255">
-        <v>0.02198817345876454</v>
+        <v>0.0553175955514</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>0.03306933932773164</v>
       </c>
       <c r="E255">
-        <v>-0.06726548229501465</v>
+        <v>22.23381164009302</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>6.699544623174278</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>0.3872731688401114</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6265,19 +6265,19 @@
         <v>25.40000000000009</v>
       </c>
       <c r="C256">
-        <v>0.02198817345876454</v>
+        <v>0.05223989972234954</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>0.03086471670588286</v>
       </c>
       <c r="E256">
-        <v>-0.06726548229501465</v>
+        <v>20.20071328980194</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>6.11705228249463</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>0.3374246010654631</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6288,19 +6288,19 @@
         <v>25.50000000000009</v>
       </c>
       <c r="C257">
-        <v>0.02198817345876454</v>
+        <v>0.0493537960973407</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>0.02866009408403409</v>
       </c>
       <c r="E257">
-        <v>-0.06726548229501465</v>
+        <v>18.2903680952259</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>5.508314339562963</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>0.290996772750111</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6311,19 +6311,19 @@
         <v>25.60000000000009</v>
       </c>
       <c r="C258">
-        <v>0.02198817345876454</v>
+        <v>0.04675922651626767</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>0.02645547146218531</v>
       </c>
       <c r="E258">
-        <v>-0.06726548229501465</v>
+        <v>16.56984214157785</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>4.865427521313247</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>0.247991554167559</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6334,19 +6334,19 @@
         <v>25.7000000000001</v>
       </c>
       <c r="C259">
-        <v>0.02198817345876454</v>
+        <v>0.04421500776505138</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>0.02425084884033653</v>
       </c>
       <c r="E259">
-        <v>-0.06726548229501465</v>
+        <v>14.87980671019844</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>4.240443868799627</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>0.2084162401928</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6357,19 +6357,19 @@
         <v>25.8000000000001</v>
       </c>
       <c r="C260">
-        <v>0.02198817345876454</v>
+        <v>0.04189125127601996</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>0.02204622621848776</v>
       </c>
       <c r="E260">
-        <v>-0.06726548229501465</v>
+        <v>13.33370747035576</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>3.61570741329454</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>0.1722709276922987</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6380,19 +6380,19 @@
         <v>25.9000000000001</v>
       </c>
       <c r="C261">
-        <v>0.02198817345876454</v>
+        <v>0.03971549871231442</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>0.01984160359663898</v>
       </c>
       <c r="E261">
-        <v>-0.06726548229501465</v>
+        <v>11.88390917662015</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>3.013506439864608</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>0.1395593161814513</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6403,19 +6403,19 @@
         <v>26.0000000000001</v>
       </c>
       <c r="C262">
-        <v>0.02198817345876454</v>
+        <v>0.03773133835265049</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>0.01984160359663898</v>
       </c>
       <c r="E262">
-        <v>-0.06726548229501465</v>
+        <v>10.55994434687843</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>3.245419667624297</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>0.1395774905275985</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6426,19 +6426,19 @@
         <v>26.1000000000001</v>
       </c>
       <c r="C263">
-        <v>0.02198817345876454</v>
+        <v>0.03584850638798884</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>0.01763698097479021</v>
       </c>
       <c r="E263">
-        <v>-0.06726548229501465</v>
+        <v>9.301975199235667</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>2.617816230511711</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>0.1102971171505009</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6449,19 +6449,19 @@
         <v>26.2000000000001</v>
       </c>
       <c r="C264">
-        <v>0.02198817345876454</v>
+        <v>0.03404260656690212</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>0.01543235835294143</v>
       </c>
       <c r="E264">
-        <v>-0.06726548229501465</v>
+        <v>8.093925968491272</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>2.046957027036265</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>0.08445629618783428</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6472,19 +6472,19 @@
         <v>26.3000000000001</v>
       </c>
       <c r="C265">
-        <v>0.02198817345876454</v>
+        <v>0.03249937073160795</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>0.01543235835294143</v>
       </c>
       <c r="E265">
-        <v>-0.06726548229501465</v>
+        <v>7.060435615097746</v>
       </c>
       <c r="F265">
-        <v>0</v>
+        <v>2.178374033549716</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>0.08446492059623245</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6495,19 +6495,19 @@
         <v>26.40000000000011</v>
       </c>
       <c r="C266">
-        <v>0.02198817345876454</v>
+        <v>0.03105746329131606</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>0.01322773573109265</v>
       </c>
       <c r="E266">
-        <v>-0.06726548229501465</v>
+        <v>6.093846601755123</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1.616277146262194</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>0.06206179416980815</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6518,19 +6518,19 @@
         <v>26.50000000000011</v>
       </c>
       <c r="C267">
-        <v>0.02198817345876454</v>
+        <v>0.02973468971820678</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>0.01322773573109265</v>
       </c>
       <c r="E267">
-        <v>-0.06726548229501465</v>
+        <v>5.206305869499282</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1.709608324823581</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>0.06206724985041496</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6541,19 +6541,19 @@
         <v>26.60000000000011</v>
       </c>
       <c r="C268">
-        <v>0.02198817345876454</v>
+        <v>0.02851095579567471</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>0.01102311310924388</v>
       </c>
       <c r="E268">
-        <v>-0.06726548229501465</v>
+        <v>4.384524199056596</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>1.192836959503615</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>0.04310576886517516</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6564,19 +6564,19 @@
         <v>26.70000000000011</v>
       </c>
       <c r="C269">
-        <v>0.02198817345876454</v>
+        <v>0.02740864448475031</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>0.01102311310924388</v>
       </c>
       <c r="E269">
-        <v>-0.06726548229501465</v>
+        <v>3.6437114273736</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1.251997308020303</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>0.04310893821359379</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6587,19 +6587,19 @@
         <v>26.80000000000011</v>
       </c>
       <c r="C270">
-        <v>0.02198817345876454</v>
+        <v>0.02650670121940539</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>0.008818490487395103</v>
       </c>
       <c r="E270">
-        <v>-0.06726548229501465</v>
+        <v>3.037154289532184</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>0.7981378338183941</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>0.02759138276172936</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6610,19 +6610,19 @@
         <v>26.90000000000011</v>
       </c>
       <c r="C271">
-        <v>0.02198817345876454</v>
+        <v>0.02562485217066587</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>0.008818490487395103</v>
       </c>
       <c r="E271">
-        <v>-0.06726548229501465</v>
+        <v>2.443760178394643</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>0.8300730344092194</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>0.02759301032037476</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6633,19 +6633,19 @@
         <v>27.00000000000011</v>
       </c>
       <c r="C272">
-        <v>0.02198817345876454</v>
+        <v>0.02484433151692862</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>0.006613867865546327</v>
       </c>
       <c r="E272">
-        <v>-0.06726548229501465</v>
+        <v>1.918260667683112</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>0.4659133386524795</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>0.01552187967541949</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6656,19 +6656,19 @@
         <v>27.10000000000012</v>
       </c>
       <c r="C273">
-        <v>0.02198817345876454</v>
+        <v>0.02418294473037397</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>0.006613867865546327</v>
       </c>
       <c r="E273">
-        <v>-0.06726548229501465</v>
+        <v>1.472757692814138</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>0.4799066765161359</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>0.01552256798638186</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6679,19 +6679,19 @@
         <v>27.20000000000012</v>
       </c>
       <c r="C274">
-        <v>0.02198817345876454</v>
+        <v>0.02362288633882161</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>0.004409245243697552</v>
       </c>
       <c r="E274">
-        <v>-0.06726548229501465</v>
+        <v>1.095355991494822</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>0.2126317369688305</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>0.006899178403028174</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6702,19 +6702,19 @@
         <v>27.30000000000012</v>
       </c>
       <c r="C275">
-        <v>0.02198817345876454</v>
+        <v>0.02318196181445185</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>0.004409245243697552</v>
       </c>
       <c r="E275">
-        <v>-0.06726548229501465</v>
+        <v>0.7981356367154446</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>0.2168610165464123</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>0.006899382705550781</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6725,19 +6725,19 @@
         <v>27.40000000000012</v>
       </c>
       <c r="C276">
-        <v>0.02198817345876454</v>
+        <v>0.02274103729008209</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>0.004409245243697552</v>
       </c>
       <c r="E276">
-        <v>-0.06726548229501465</v>
+        <v>0.5008286176116959</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>0.2212657649087064</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>0.006899587150613771</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6748,19 +6748,19 @@
         <v>27.50000000000012</v>
       </c>
       <c r="C277">
-        <v>0.02198817345876454</v>
+        <v>0.02245827908768414</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>0.002204622621848776</v>
       </c>
       <c r="E277">
-        <v>-0.06726548229501465</v>
+        <v>0.3101245281406692</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>0.05501833624850206</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>0.001724929583303601</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6771,19 +6771,19 @@
         <v>27.60000000000012</v>
       </c>
       <c r="C278">
-        <v>0.02198817345876454</v>
+        <v>0.02223781682549926</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>0.002204622621848776</v>
       </c>
       <c r="E278">
-        <v>-0.06726548229501465</v>
+        <v>0.1614107240937382</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>0.05557040244552693</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>0.001724955163757463</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6794,19 +6794,19 @@
         <v>27.70000000000012</v>
       </c>
       <c r="C279">
-        <v>0.02198817345876454</v>
+        <v>0.02201735456331438</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>0.002204622621848776</v>
       </c>
       <c r="E279">
-        <v>-0.06726548229501465</v>
+        <v>0.01267524929797027</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>0.05613372743158178</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>0.001724980753140908</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6814,136 +6814,21 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>27.80000000000013</v>
+        <v>27.74265259938838</v>
       </c>
       <c r="C280">
-        <v>0.02198817345876454</v>
+        <v>0.02196654087220924</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>-0.06726548229501465</v>
+        <v>-0.02160942106343955</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>27.90000000000013</v>
-      </c>
-      <c r="C281">
-        <v>0.02198817345876454</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
-        <v>-0.06726548229501465</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="B282">
-        <v>28.00000000000013</v>
-      </c>
-      <c r="C282">
-        <v>0.02198817345876454</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
-        <v>-0.06726548229501465</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="B283">
-        <v>28.10000000000013</v>
-      </c>
-      <c r="C283">
-        <v>0.02198817345876454</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <v>-0.06726548229501465</v>
-      </c>
-      <c r="F283">
-        <v>0</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="B284">
-        <v>28.20000000000013</v>
-      </c>
-      <c r="C284">
-        <v>0.02198817345876454</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
-        <v>-0.06726548229501465</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
-      <c r="G284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>28.26120685358256</v>
-      </c>
-      <c r="C285">
-        <v>0.02198817345876454</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>-0.06726548229501465</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
         <v>0</v>
       </c>
     </row>
